--- a/bill_ok_proc.xlsx
+++ b/bill_ok_proc.xlsx
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>生活费收入</t>
+          <t>日常</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>生活费收入</t>
+          <t>享受</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>生活费收入</t>
+          <t>日常</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">

--- a/bill_ok_proc.xlsx
+++ b/bill_ok_proc.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O158"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,30 +485,35 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>周</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>日</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>星期</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>时</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>相对日</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>相对时</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>余额</t>
         </is>
@@ -551,23 +556,26 @@
         <v>7</v>
       </c>
       <c r="J2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K2" t="n">
         <v>25</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>17</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>25</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>17.08333333333333</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>295.23</v>
       </c>
     </row>
@@ -608,23 +616,26 @@
         <v>7</v>
       </c>
       <c r="J3" t="n">
+        <v>30</v>
+      </c>
+      <c r="K3" t="n">
         <v>25</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>16</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>25</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>16.5</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>309.53</v>
       </c>
     </row>
@@ -665,23 +676,26 @@
         <v>7</v>
       </c>
       <c r="J4" t="n">
+        <v>30</v>
+      </c>
+      <c r="K4" t="n">
         <v>25</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>12</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>25</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>12.93333333333333</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>311.53</v>
       </c>
     </row>
@@ -722,23 +736,26 @@
         <v>7</v>
       </c>
       <c r="J5" t="n">
+        <v>30</v>
+      </c>
+      <c r="K5" t="n">
         <v>25</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>11</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>25</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>11.85</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>316.59</v>
       </c>
     </row>
@@ -779,23 +796,26 @@
         <v>7</v>
       </c>
       <c r="J6" t="n">
+        <v>30</v>
+      </c>
+      <c r="K6" t="n">
         <v>25</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>11</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>25</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>11.13333333333333</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>330.59</v>
       </c>
     </row>
@@ -836,23 +856,26 @@
         <v>7</v>
       </c>
       <c r="J7" t="n">
+        <v>30</v>
+      </c>
+      <c r="K7" t="n">
         <v>25</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>25</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>0.7</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>327.79</v>
       </c>
     </row>
@@ -893,23 +916,26 @@
         <v>7</v>
       </c>
       <c r="J8" t="n">
+        <v>30</v>
+      </c>
+      <c r="K8" t="n">
         <v>24</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>21</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>24</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>21.33333333333333</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>353.59</v>
       </c>
     </row>
@@ -950,23 +976,26 @@
         <v>7</v>
       </c>
       <c r="J9" t="n">
+        <v>30</v>
+      </c>
+      <c r="K9" t="n">
         <v>24</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>17</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>24</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>17.46666666666667</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>453.19</v>
       </c>
     </row>
@@ -1007,23 +1036,26 @@
         <v>7</v>
       </c>
       <c r="J10" t="n">
+        <v>30</v>
+      </c>
+      <c r="K10" t="n">
         <v>24</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>11</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>24</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>11.1</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>468.99</v>
       </c>
     </row>
@@ -1064,15 +1096,15 @@
         <v>7</v>
       </c>
       <c r="J11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K11" t="n">
         <v>23</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
-      </c>
-      <c r="L11" t="n">
-        <v>23</v>
       </c>
       <c r="M11" t="n">
         <v>23</v>
@@ -1081,6 +1113,9 @@
         <v>23</v>
       </c>
       <c r="O11" t="n">
+        <v>23</v>
+      </c>
+      <c r="P11" t="n">
         <v>490.99</v>
       </c>
     </row>
@@ -1121,23 +1156,26 @@
         <v>7</v>
       </c>
       <c r="J12" t="n">
+        <v>30</v>
+      </c>
+      <c r="K12" t="n">
         <v>23</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>17</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>23</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>17.36666666666667</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>498.99</v>
       </c>
     </row>
@@ -1178,23 +1216,26 @@
         <v>7</v>
       </c>
       <c r="J13" t="n">
+        <v>30</v>
+      </c>
+      <c r="K13" t="n">
         <v>23</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>10</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>23</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>10.55</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>551.79</v>
       </c>
     </row>
@@ -1235,23 +1276,26 @@
         <v>7</v>
       </c>
       <c r="J14" t="n">
+        <v>30</v>
+      </c>
+      <c r="K14" t="n">
         <v>23</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>0</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>23</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>0.75</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>594.13</v>
       </c>
     </row>
@@ -1292,23 +1336,26 @@
         <v>7</v>
       </c>
       <c r="J15" t="n">
+        <v>30</v>
+      </c>
+      <c r="K15" t="n">
         <v>22</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>20</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>22</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>20.36666666666667</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>613.53</v>
       </c>
     </row>
@@ -1349,23 +1396,26 @@
         <v>7</v>
       </c>
       <c r="J16" t="n">
+        <v>30</v>
+      </c>
+      <c r="K16" t="n">
         <v>22</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>20</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>22</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>20.21666666666667</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>649.73</v>
       </c>
     </row>
@@ -1406,23 +1456,26 @@
         <v>7</v>
       </c>
       <c r="J17" t="n">
+        <v>30</v>
+      </c>
+      <c r="K17" t="n">
         <v>22</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>17</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>22</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>17.41666666666667</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>655.73</v>
       </c>
     </row>
@@ -1463,23 +1516,26 @@
         <v>7</v>
       </c>
       <c r="J18" t="n">
+        <v>30</v>
+      </c>
+      <c r="K18" t="n">
         <v>22</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>10</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>22</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>10.95</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>673.6099999999999</v>
       </c>
     </row>
@@ -1520,23 +1576,26 @@
         <v>7</v>
       </c>
       <c r="J19" t="n">
+        <v>30</v>
+      </c>
+      <c r="K19" t="n">
         <v>22</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>22</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>1.133333333333333</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>688.6099999999999</v>
       </c>
     </row>
@@ -1577,23 +1636,26 @@
         <v>7</v>
       </c>
       <c r="J20" t="n">
+        <v>29</v>
+      </c>
+      <c r="K20" t="n">
         <v>21</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>23</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>21</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>23.66666666666667</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>718.6099999999999</v>
       </c>
     </row>
@@ -1634,23 +1696,26 @@
         <v>7</v>
       </c>
       <c r="J21" t="n">
+        <v>29</v>
+      </c>
+      <c r="K21" t="n">
         <v>21</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
-      </c>
-      <c r="L21" t="n">
-        <v>21</v>
       </c>
       <c r="M21" t="n">
         <v>21</v>
       </c>
       <c r="N21" t="n">
+        <v>21</v>
+      </c>
+      <c r="O21" t="n">
         <v>21.91666666666667</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>778.6099999999999</v>
       </c>
     </row>
@@ -1691,23 +1756,26 @@
         <v>7</v>
       </c>
       <c r="J22" t="n">
+        <v>29</v>
+      </c>
+      <c r="K22" t="n">
         <v>21</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
-      </c>
-      <c r="L22" t="n">
-        <v>21</v>
       </c>
       <c r="M22" t="n">
         <v>21</v>
       </c>
       <c r="N22" t="n">
+        <v>21</v>
+      </c>
+      <c r="O22" t="n">
         <v>21.6</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>775.1899999999999</v>
       </c>
     </row>
@@ -1748,23 +1816,26 @@
         <v>7</v>
       </c>
       <c r="J23" t="n">
+        <v>29</v>
+      </c>
+      <c r="K23" t="n">
         <v>21</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>17</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>21</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>17.53333333333333</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>778.1899999999999</v>
       </c>
     </row>
@@ -1805,23 +1876,26 @@
         <v>7</v>
       </c>
       <c r="J24" t="n">
+        <v>29</v>
+      </c>
+      <c r="K24" t="n">
         <v>21</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>14</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>21</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>14.25</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>781.1899999999999</v>
       </c>
     </row>
@@ -1862,23 +1936,26 @@
         <v>7</v>
       </c>
       <c r="J25" t="n">
+        <v>29</v>
+      </c>
+      <c r="K25" t="n">
         <v>21</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>13</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>21</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>13.28333333333333</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>786.0899999999999</v>
       </c>
     </row>
@@ -1919,23 +1996,26 @@
         <v>7</v>
       </c>
       <c r="J26" t="n">
+        <v>29</v>
+      </c>
+      <c r="K26" t="n">
         <v>21</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>12</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>21</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>12.26666666666667</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>877.8899999999999</v>
       </c>
     </row>
@@ -1976,23 +2056,26 @@
         <v>7</v>
       </c>
       <c r="J27" t="n">
+        <v>29</v>
+      </c>
+      <c r="K27" t="n">
         <v>21</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>12</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>21</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>12.03333333333333</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>1042.89</v>
       </c>
     </row>
@@ -2033,23 +2116,26 @@
         <v>7</v>
       </c>
       <c r="J28" t="n">
+        <v>29</v>
+      </c>
+      <c r="K28" t="n">
         <v>20</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>23</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>20</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>23.83333333333333</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>1045.39</v>
       </c>
     </row>
@@ -2090,23 +2176,26 @@
         <v>7</v>
       </c>
       <c r="J29" t="n">
+        <v>29</v>
+      </c>
+      <c r="K29" t="n">
         <v>20</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
-      </c>
-      <c r="L29" t="n">
-        <v>20</v>
       </c>
       <c r="M29" t="n">
         <v>20</v>
       </c>
       <c r="N29" t="n">
+        <v>20</v>
+      </c>
+      <c r="O29" t="n">
         <v>20.93333333333333</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>1075.39</v>
       </c>
     </row>
@@ -2147,23 +2236,26 @@
         <v>7</v>
       </c>
       <c r="J30" t="n">
+        <v>29</v>
+      </c>
+      <c r="K30" t="n">
         <v>20</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>17</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>20</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>17.88333333333333</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>1045.39</v>
       </c>
     </row>
@@ -2204,23 +2296,26 @@
         <v>7</v>
       </c>
       <c r="J31" t="n">
+        <v>29</v>
+      </c>
+      <c r="K31" t="n">
         <v>20</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>12</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>20</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>12.41666666666667</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>1059.29</v>
       </c>
     </row>
@@ -2261,23 +2356,26 @@
         <v>7</v>
       </c>
       <c r="J32" t="n">
+        <v>29</v>
+      </c>
+      <c r="K32" t="n">
         <v>20</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>12</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>20</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>12.21666666666667</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>1061.13</v>
       </c>
     </row>
@@ -2318,23 +2416,26 @@
         <v>7</v>
       </c>
       <c r="J33" t="n">
+        <v>29</v>
+      </c>
+      <c r="K33" t="n">
         <v>20</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>11</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>20</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>11.38333333333333</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>1066.19</v>
       </c>
     </row>
@@ -2375,23 +2476,26 @@
         <v>7</v>
       </c>
       <c r="J34" t="n">
+        <v>29</v>
+      </c>
+      <c r="K34" t="n">
         <v>20</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>8</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>20</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>8.5</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>1081.19</v>
       </c>
     </row>
@@ -2432,23 +2536,26 @@
         <v>7</v>
       </c>
       <c r="J35" t="n">
+        <v>29</v>
+      </c>
+      <c r="K35" t="n">
         <v>20</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>7</v>
-      </c>
       <c r="M35" t="n">
+        <v>7</v>
+      </c>
+      <c r="N35" t="n">
         <v>20</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>7.583333333333333</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>81.18999999999983</v>
       </c>
     </row>
@@ -2489,23 +2596,26 @@
         <v>7</v>
       </c>
       <c r="J36" t="n">
+        <v>29</v>
+      </c>
+      <c r="K36" t="n">
         <v>19</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>23</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>19</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>23.95</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>95.18999999999983</v>
       </c>
     </row>
@@ -2546,23 +2656,26 @@
         <v>7</v>
       </c>
       <c r="J37" t="n">
+        <v>29</v>
+      </c>
+      <c r="K37" t="n">
         <v>19</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>22</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>19</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>22.01666666666667</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>124.8199999999998</v>
       </c>
     </row>
@@ -2603,23 +2716,26 @@
         <v>7</v>
       </c>
       <c r="J38" t="n">
+        <v>29</v>
+      </c>
+      <c r="K38" t="n">
         <v>19</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>17</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>19</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>17.43333333333333</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>125.8199999999998</v>
       </c>
     </row>
@@ -2660,23 +2776,26 @@
         <v>7</v>
       </c>
       <c r="J39" t="n">
+        <v>29</v>
+      </c>
+      <c r="K39" t="n">
         <v>19</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>14</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>19</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>14.46666666666667</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>141.2199999999998</v>
       </c>
     </row>
@@ -2717,23 +2836,26 @@
         <v>7</v>
       </c>
       <c r="J40" t="n">
+        <v>29</v>
+      </c>
+      <c r="K40" t="n">
         <v>19</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>11</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>19</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>11.4</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>146.2199999999998</v>
       </c>
     </row>
@@ -2774,23 +2896,26 @@
         <v>7</v>
       </c>
       <c r="J41" t="n">
+        <v>29</v>
+      </c>
+      <c r="K41" t="n">
         <v>18</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>23</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>18</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>23.13333333333333</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>159.5199999999998</v>
       </c>
     </row>
@@ -2831,23 +2956,26 @@
         <v>7</v>
       </c>
       <c r="J42" t="n">
+        <v>29</v>
+      </c>
+      <c r="K42" t="n">
         <v>18</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>22</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>18</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>22.1</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>165.5199999999998</v>
       </c>
     </row>
@@ -2888,23 +3016,26 @@
         <v>7</v>
       </c>
       <c r="J43" t="n">
+        <v>29</v>
+      </c>
+      <c r="K43" t="n">
         <v>18</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>12</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>18</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>12.3</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>202.7899999999998</v>
       </c>
     </row>
@@ -2945,23 +3076,26 @@
         <v>7</v>
       </c>
       <c r="J44" t="n">
+        <v>29</v>
+      </c>
+      <c r="K44" t="n">
         <v>18</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>11</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>18</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>11.5</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>212.4499999999998</v>
       </c>
     </row>
@@ -3002,23 +3136,26 @@
         <v>7</v>
       </c>
       <c r="J45" t="n">
+        <v>29</v>
+      </c>
+      <c r="K45" t="n">
         <v>18</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>10</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>18</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>10.33333333333333</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>226.4499999999998</v>
       </c>
     </row>
@@ -3059,23 +3196,26 @@
         <v>7</v>
       </c>
       <c r="J46" t="n">
+        <v>29</v>
+      </c>
+      <c r="K46" t="n">
         <v>17</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
-      </c>
-      <c r="L46" t="n">
-        <v>17</v>
       </c>
       <c r="M46" t="n">
         <v>17</v>
       </c>
       <c r="N46" t="n">
+        <v>17</v>
+      </c>
+      <c r="O46" t="n">
         <v>17.36666666666667</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>244.6499999999999</v>
       </c>
     </row>
@@ -3116,23 +3256,26 @@
         <v>7</v>
       </c>
       <c r="J47" t="n">
+        <v>29</v>
+      </c>
+      <c r="K47" t="n">
         <v>17</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>15</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>17</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>15.71666666666667</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>253.9499999999998</v>
       </c>
     </row>
@@ -3173,23 +3316,26 @@
         <v>7</v>
       </c>
       <c r="J48" t="n">
+        <v>29</v>
+      </c>
+      <c r="K48" t="n">
         <v>17</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>11</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>17</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>11.95</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>257.7499999999998</v>
       </c>
     </row>
@@ -3230,23 +3376,26 @@
         <v>7</v>
       </c>
       <c r="J49" t="n">
+        <v>29</v>
+      </c>
+      <c r="K49" t="n">
         <v>17</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>17</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>1.016666666666667</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>271.7499999999998</v>
       </c>
     </row>
@@ -3287,23 +3436,26 @@
         <v>7</v>
       </c>
       <c r="J50" t="n">
+        <v>29</v>
+      </c>
+      <c r="K50" t="n">
         <v>17</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>0</v>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>17</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>0.9166666666666666</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>469.7499999999998</v>
       </c>
     </row>
@@ -3344,23 +3496,26 @@
         <v>7</v>
       </c>
       <c r="J51" t="n">
+        <v>29</v>
+      </c>
+      <c r="K51" t="n">
         <v>16</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>20</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>16</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>20.1</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>637.7499999999998</v>
       </c>
     </row>
@@ -3401,23 +3556,26 @@
         <v>7</v>
       </c>
       <c r="J52" t="n">
+        <v>29</v>
+      </c>
+      <c r="K52" t="n">
         <v>16</v>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>17</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>16</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>17.5</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>648.7499999999998</v>
       </c>
     </row>
@@ -3458,23 +3616,26 @@
         <v>7</v>
       </c>
       <c r="J53" t="n">
+        <v>29</v>
+      </c>
+      <c r="K53" t="n">
         <v>16</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>17</v>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>16</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>17.31666666666667</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>666.7499999999998</v>
       </c>
     </row>
@@ -3515,23 +3676,26 @@
         <v>7</v>
       </c>
       <c r="J54" t="n">
+        <v>29</v>
+      </c>
+      <c r="K54" t="n">
         <v>16</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
         <v>17</v>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>16</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>17.08333333333333</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>673.7499999999998</v>
       </c>
     </row>
@@ -3572,23 +3736,26 @@
         <v>7</v>
       </c>
       <c r="J55" t="n">
+        <v>29</v>
+      </c>
+      <c r="K55" t="n">
         <v>16</v>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>11</v>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>16</v>
       </c>
-      <c r="N55" t="n">
+      <c r="O55" t="n">
         <v>11.85</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
         <v>700.7499999999998</v>
       </c>
     </row>
@@ -3629,23 +3796,26 @@
         <v>7</v>
       </c>
       <c r="J56" t="n">
+        <v>29</v>
+      </c>
+      <c r="K56" t="n">
         <v>16</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
         <v>9</v>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>16</v>
       </c>
-      <c r="N56" t="n">
+      <c r="O56" t="n">
         <v>9</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>714.8499999999999</v>
       </c>
     </row>
@@ -3686,23 +3856,26 @@
         <v>7</v>
       </c>
       <c r="J57" t="n">
+        <v>29</v>
+      </c>
+      <c r="K57" t="n">
         <v>15</v>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>23</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>15</v>
       </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
         <v>23.68333333333333</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>726.3499999999999</v>
       </c>
     </row>
@@ -3743,23 +3916,26 @@
         <v>7</v>
       </c>
       <c r="J58" t="n">
+        <v>29</v>
+      </c>
+      <c r="K58" t="n">
         <v>15</v>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
         <v>19</v>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>15</v>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>19.13333333333333</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>784.0699999999998</v>
       </c>
     </row>
@@ -3800,23 +3976,26 @@
         <v>7</v>
       </c>
       <c r="J59" t="n">
+        <v>29</v>
+      </c>
+      <c r="K59" t="n">
         <v>15</v>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>18</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>15</v>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>18.13333333333333</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>795.0699999999998</v>
       </c>
     </row>
@@ -3857,23 +4036,26 @@
         <v>7</v>
       </c>
       <c r="J60" t="n">
+        <v>29</v>
+      </c>
+      <c r="K60" t="n">
         <v>15</v>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
         <v>18</v>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>15</v>
       </c>
-      <c r="N60" t="n">
+      <c r="O60" t="n">
         <v>18.11666666666667</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
         <v>823.0699999999998</v>
       </c>
     </row>
@@ -3914,23 +4096,26 @@
         <v>7</v>
       </c>
       <c r="J61" t="n">
+        <v>29</v>
+      </c>
+      <c r="K61" t="n">
         <v>15</v>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
         <v>11</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>15</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>11.1</v>
       </c>
-      <c r="O61" t="n">
+      <c r="P61" t="n">
         <v>839.0699999999998</v>
       </c>
     </row>
@@ -3971,23 +4156,26 @@
         <v>7</v>
       </c>
       <c r="J62" t="n">
+        <v>29</v>
+      </c>
+      <c r="K62" t="n">
         <v>15</v>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>10</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>15</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>10.18333333333333</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>854.0699999999998</v>
       </c>
     </row>
@@ -4028,23 +4216,26 @@
         <v>7</v>
       </c>
       <c r="J63" t="n">
+        <v>29</v>
+      </c>
+      <c r="K63" t="n">
         <v>15</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>0</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>15</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>0.6</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>893.0699999999998</v>
       </c>
     </row>
@@ -4085,23 +4276,26 @@
         <v>7</v>
       </c>
       <c r="J64" t="n">
+        <v>28</v>
+      </c>
+      <c r="K64" t="n">
         <v>14</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
         <v>22</v>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>14</v>
       </c>
-      <c r="N64" t="n">
+      <c r="O64" t="n">
         <v>22.08333333333333</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>908.0699999999998</v>
       </c>
     </row>
@@ -4142,23 +4336,26 @@
         <v>7</v>
       </c>
       <c r="J65" t="n">
+        <v>28</v>
+      </c>
+      <c r="K65" t="n">
         <v>14</v>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>20</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>14</v>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>20.88333333333333</v>
       </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
         <v>944.7699999999999</v>
       </c>
     </row>
@@ -4199,23 +4396,26 @@
         <v>7</v>
       </c>
       <c r="J66" t="n">
+        <v>28</v>
+      </c>
+      <c r="K66" t="n">
         <v>14</v>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
         <v>20</v>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>14</v>
       </c>
-      <c r="N66" t="n">
+      <c r="O66" t="n">
         <v>20.51666666666667</v>
       </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
         <v>948.7699999999999</v>
       </c>
     </row>
@@ -4256,23 +4456,26 @@
         <v>7</v>
       </c>
       <c r="J67" t="n">
+        <v>28</v>
+      </c>
+      <c r="K67" t="n">
         <v>14</v>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
         <v>19</v>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>14</v>
       </c>
-      <c r="N67" t="n">
+      <c r="O67" t="n">
         <v>19.05</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>958.4999999999999</v>
       </c>
     </row>
@@ -4313,23 +4516,26 @@
         <v>7</v>
       </c>
       <c r="J68" t="n">
+        <v>28</v>
+      </c>
+      <c r="K68" t="n">
         <v>14</v>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
         <v>17</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>14</v>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>17.71666666666667</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>1166.5</v>
       </c>
     </row>
@@ -4370,23 +4576,26 @@
         <v>7</v>
       </c>
       <c r="J69" t="n">
+        <v>28</v>
+      </c>
+      <c r="K69" t="n">
         <v>14</v>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>11</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>14</v>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>11.5</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>1178</v>
       </c>
     </row>
@@ -4427,23 +4636,26 @@
         <v>7</v>
       </c>
       <c r="J70" t="n">
+        <v>28</v>
+      </c>
+      <c r="K70" t="n">
         <v>14</v>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>11</v>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>14</v>
       </c>
-      <c r="N70" t="n">
+      <c r="O70" t="n">
         <v>11.15</v>
       </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
         <v>1194.87</v>
       </c>
     </row>
@@ -4484,23 +4696,26 @@
         <v>7</v>
       </c>
       <c r="J71" t="n">
+        <v>28</v>
+      </c>
+      <c r="K71" t="n">
         <v>13</v>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>23</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>13</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>23.35</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>1198.87</v>
       </c>
     </row>
@@ -4541,23 +4756,26 @@
         <v>7</v>
       </c>
       <c r="J72" t="n">
+        <v>28</v>
+      </c>
+      <c r="K72" t="n">
         <v>13</v>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L72" t="n">
+      <c r="M72" t="n">
         <v>21</v>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>13</v>
       </c>
-      <c r="N72" t="n">
+      <c r="O72" t="n">
         <v>21.55</v>
       </c>
-      <c r="O72" t="n">
+      <c r="P72" t="n">
         <v>1204.87</v>
       </c>
     </row>
@@ -4598,23 +4816,26 @@
         <v>7</v>
       </c>
       <c r="J73" t="n">
+        <v>28</v>
+      </c>
+      <c r="K73" t="n">
         <v>13</v>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L73" t="n">
+      <c r="M73" t="n">
         <v>17</v>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>13</v>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>17.21666666666667</v>
       </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
         <v>1243.33</v>
       </c>
     </row>
@@ -4655,23 +4876,26 @@
         <v>7</v>
       </c>
       <c r="J74" t="n">
+        <v>28</v>
+      </c>
+      <c r="K74" t="n">
         <v>13</v>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
         <v>17</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>13</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>17.16666666666667</v>
       </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
         <v>1259.23</v>
       </c>
     </row>
@@ -4712,23 +4936,26 @@
         <v>7</v>
       </c>
       <c r="J75" t="n">
+        <v>28</v>
+      </c>
+      <c r="K75" t="n">
         <v>13</v>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
         <v>11</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>13</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>11.85</v>
       </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
         <v>1272.73</v>
       </c>
     </row>
@@ -4769,23 +4996,26 @@
         <v>7</v>
       </c>
       <c r="J76" t="n">
+        <v>28</v>
+      </c>
+      <c r="K76" t="n">
         <v>13</v>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L76" t="n">
+      <c r="M76" t="n">
         <v>9</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>13</v>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>9.233333333333333</v>
       </c>
-      <c r="O76" t="n">
+      <c r="P76" t="n">
         <v>1275.73</v>
       </c>
     </row>
@@ -4826,23 +5056,26 @@
         <v>7</v>
       </c>
       <c r="J77" t="n">
+        <v>28</v>
+      </c>
+      <c r="K77" t="n">
         <v>12</v>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
         <v>15</v>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>12</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>15.41666666666667</v>
       </c>
-      <c r="O77" t="n">
+      <c r="P77" t="n">
         <v>1291.93</v>
       </c>
     </row>
@@ -4883,23 +5116,26 @@
         <v>7</v>
       </c>
       <c r="J78" t="n">
+        <v>28</v>
+      </c>
+      <c r="K78" t="n">
         <v>12</v>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="L78" t="n">
+      <c r="M78" t="n">
         <v>11</v>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>12</v>
       </c>
-      <c r="N78" t="n">
+      <c r="O78" t="n">
         <v>11.88333333333333</v>
       </c>
-      <c r="O78" t="n">
+      <c r="P78" t="n">
         <v>1358.13</v>
       </c>
     </row>
@@ -4940,23 +5176,26 @@
         <v>7</v>
       </c>
       <c r="J79" t="n">
+        <v>28</v>
+      </c>
+      <c r="K79" t="n">
         <v>11</v>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L79" t="n">
+      <c r="M79" t="n">
         <v>17</v>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>11</v>
       </c>
-      <c r="N79" t="n">
+      <c r="O79" t="n">
         <v>17.35</v>
       </c>
-      <c r="O79" t="n">
+      <c r="P79" t="n">
         <v>1390.31</v>
       </c>
     </row>
@@ -4997,23 +5236,26 @@
         <v>7</v>
       </c>
       <c r="J80" t="n">
+        <v>28</v>
+      </c>
+      <c r="K80" t="n">
         <v>11</v>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
-      </c>
-      <c r="L80" t="n">
-        <v>11</v>
       </c>
       <c r="M80" t="n">
         <v>11</v>
       </c>
       <c r="N80" t="n">
+        <v>11</v>
+      </c>
+      <c r="O80" t="n">
         <v>11.51666666666667</v>
       </c>
-      <c r="O80" t="n">
+      <c r="P80" t="n">
         <v>1404.31</v>
       </c>
     </row>
@@ -5054,23 +5296,26 @@
         <v>7</v>
       </c>
       <c r="J81" t="n">
+        <v>28</v>
+      </c>
+      <c r="K81" t="n">
         <v>11</v>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
-      </c>
-      <c r="L81" t="n">
-        <v>11</v>
       </c>
       <c r="M81" t="n">
         <v>11</v>
       </c>
       <c r="N81" t="n">
+        <v>11</v>
+      </c>
+      <c r="O81" t="n">
         <v>11.25</v>
       </c>
-      <c r="O81" t="n">
+      <c r="P81" t="n">
         <v>1418.33</v>
       </c>
     </row>
@@ -5111,23 +5356,26 @@
         <v>7</v>
       </c>
       <c r="J82" t="n">
+        <v>28</v>
+      </c>
+      <c r="K82" t="n">
         <v>11</v>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L82" t="n">
+      <c r="M82" t="n">
         <v>8</v>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>11</v>
       </c>
-      <c r="N82" t="n">
+      <c r="O82" t="n">
         <v>8.333333333333334</v>
       </c>
-      <c r="O82" t="n">
+      <c r="P82" t="n">
         <v>1433.33</v>
       </c>
     </row>
@@ -5168,23 +5416,26 @@
         <v>7</v>
       </c>
       <c r="J83" t="n">
+        <v>28</v>
+      </c>
+      <c r="K83" t="n">
         <v>11</v>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L83" t="n">
+      <c r="M83" t="n">
         <v>8</v>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>11</v>
       </c>
-      <c r="N83" t="n">
+      <c r="O83" t="n">
         <v>8.15</v>
       </c>
-      <c r="O83" t="n">
+      <c r="P83" t="n">
         <v>1437.13</v>
       </c>
     </row>
@@ -5225,23 +5476,26 @@
         <v>7</v>
       </c>
       <c r="J84" t="n">
+        <v>28</v>
+      </c>
+      <c r="K84" t="n">
         <v>10</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L84" t="n">
+      <c r="M84" t="n">
         <v>17</v>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>10</v>
       </c>
-      <c r="N84" t="n">
+      <c r="O84" t="n">
         <v>17.26666666666667</v>
       </c>
-      <c r="O84" t="n">
+      <c r="P84" t="n">
         <v>1441.13</v>
       </c>
     </row>
@@ -5282,23 +5536,26 @@
         <v>7</v>
       </c>
       <c r="J85" t="n">
+        <v>28</v>
+      </c>
+      <c r="K85" t="n">
         <v>10</v>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L85" t="n">
+      <c r="M85" t="n">
         <v>17</v>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>10</v>
       </c>
-      <c r="N85" t="n">
+      <c r="O85" t="n">
         <v>17.26666666666667</v>
       </c>
-      <c r="O85" t="n">
+      <c r="P85" t="n">
         <v>1461.93</v>
       </c>
     </row>
@@ -5339,23 +5596,26 @@
         <v>7</v>
       </c>
       <c r="J86" t="n">
+        <v>28</v>
+      </c>
+      <c r="K86" t="n">
         <v>10</v>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L86" t="n">
+      <c r="M86" t="n">
         <v>8</v>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>10</v>
       </c>
-      <c r="N86" t="n">
+      <c r="O86" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="O86" t="n">
+      <c r="P86" t="n">
         <v>1473.93</v>
       </c>
     </row>
@@ -5396,23 +5656,26 @@
         <v>7</v>
       </c>
       <c r="J87" t="n">
+        <v>28</v>
+      </c>
+      <c r="K87" t="n">
         <v>9</v>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L87" t="n">
+      <c r="M87" t="n">
         <v>22</v>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>9</v>
       </c>
-      <c r="N87" t="n">
+      <c r="O87" t="n">
         <v>22.48333333333333</v>
       </c>
-      <c r="O87" t="n">
+      <c r="P87" t="n">
         <v>1482.73</v>
       </c>
     </row>
@@ -5453,23 +5716,26 @@
         <v>7</v>
       </c>
       <c r="J88" t="n">
+        <v>28</v>
+      </c>
+      <c r="K88" t="n">
         <v>9</v>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L88" t="n">
+      <c r="M88" t="n">
         <v>20</v>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>9</v>
       </c>
-      <c r="N88" t="n">
+      <c r="O88" t="n">
         <v>20.25</v>
       </c>
-      <c r="O88" t="n">
+      <c r="P88" t="n">
         <v>1512.73</v>
       </c>
     </row>
@@ -5510,23 +5776,26 @@
         <v>7</v>
       </c>
       <c r="J89" t="n">
+        <v>28</v>
+      </c>
+      <c r="K89" t="n">
         <v>9</v>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L89" t="n">
+      <c r="M89" t="n">
         <v>19</v>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>9</v>
       </c>
-      <c r="N89" t="n">
+      <c r="O89" t="n">
         <v>19.73333333333333</v>
       </c>
-      <c r="O89" t="n">
+      <c r="P89" t="n">
         <v>1540.23</v>
       </c>
     </row>
@@ -5567,23 +5836,26 @@
         <v>7</v>
       </c>
       <c r="J90" t="n">
+        <v>28</v>
+      </c>
+      <c r="K90" t="n">
         <v>9</v>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L90" t="n">
+      <c r="M90" t="n">
         <v>19</v>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>9</v>
       </c>
-      <c r="N90" t="n">
+      <c r="O90" t="n">
         <v>19.28333333333333</v>
       </c>
-      <c r="O90" t="n">
+      <c r="P90" t="n">
         <v>1552.23</v>
       </c>
     </row>
@@ -5624,23 +5896,26 @@
         <v>7</v>
       </c>
       <c r="J91" t="n">
+        <v>28</v>
+      </c>
+      <c r="K91" t="n">
         <v>9</v>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L91" t="n">
+      <c r="M91" t="n">
         <v>16</v>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>9</v>
       </c>
-      <c r="N91" t="n">
+      <c r="O91" t="n">
         <v>16.03333333333333</v>
       </c>
-      <c r="O91" t="n">
+      <c r="P91" t="n">
         <v>552.2299999999998</v>
       </c>
     </row>
@@ -5681,23 +5956,26 @@
         <v>7</v>
       </c>
       <c r="J92" t="n">
+        <v>28</v>
+      </c>
+      <c r="K92" t="n">
         <v>9</v>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L92" t="n">
+      <c r="M92" t="n">
         <v>13</v>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>9</v>
       </c>
-      <c r="N92" t="n">
+      <c r="O92" t="n">
         <v>13.86666666666667</v>
       </c>
-      <c r="O92" t="n">
+      <c r="P92" t="n">
         <v>569.8299999999998</v>
       </c>
     </row>
@@ -5738,23 +6016,26 @@
         <v>7</v>
       </c>
       <c r="J93" t="n">
+        <v>28</v>
+      </c>
+      <c r="K93" t="n">
         <v>9</v>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L93" t="n">
+      <c r="M93" t="n">
         <v>11</v>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>9</v>
       </c>
-      <c r="N93" t="n">
+      <c r="O93" t="n">
         <v>11.65</v>
       </c>
-      <c r="O93" t="n">
+      <c r="P93" t="n">
         <v>578.3299999999998</v>
       </c>
     </row>
@@ -5795,23 +6076,26 @@
         <v>7</v>
       </c>
       <c r="J94" t="n">
+        <v>28</v>
+      </c>
+      <c r="K94" t="n">
         <v>9</v>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L94" t="n">
+      <c r="M94" t="n">
         <v>11</v>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>9</v>
       </c>
-      <c r="N94" t="n">
+      <c r="O94" t="n">
         <v>11.61666666666667</v>
       </c>
-      <c r="O94" t="n">
+      <c r="P94" t="n">
         <v>580.1699999999998</v>
       </c>
     </row>
@@ -5852,23 +6136,26 @@
         <v>7</v>
       </c>
       <c r="J95" t="n">
+        <v>28</v>
+      </c>
+      <c r="K95" t="n">
         <v>9</v>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L95" t="n">
+      <c r="M95" t="n">
         <v>11</v>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>9</v>
       </c>
-      <c r="N95" t="n">
+      <c r="O95" t="n">
         <v>11.2</v>
       </c>
-      <c r="O95" t="n">
+      <c r="P95" t="n">
         <v>585.5699999999997</v>
       </c>
     </row>
@@ -5909,23 +6196,26 @@
         <v>7</v>
       </c>
       <c r="J96" t="n">
+        <v>28</v>
+      </c>
+      <c r="K96" t="n">
         <v>9</v>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>7</v>
-      </c>
       <c r="M96" t="n">
+        <v>7</v>
+      </c>
+      <c r="N96" t="n">
         <v>9</v>
       </c>
-      <c r="N96" t="n">
+      <c r="O96" t="n">
         <v>7.85</v>
       </c>
-      <c r="O96" t="n">
+      <c r="P96" t="n">
         <v>593.5699999999997</v>
       </c>
     </row>
@@ -5966,23 +6256,26 @@
         <v>7</v>
       </c>
       <c r="J97" t="n">
+        <v>28</v>
+      </c>
+      <c r="K97" t="n">
         <v>8</v>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L97" t="n">
+      <c r="M97" t="n">
         <v>19</v>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>8</v>
       </c>
-      <c r="N97" t="n">
+      <c r="O97" t="n">
         <v>19.78333333333333</v>
       </c>
-      <c r="O97" t="n">
+      <c r="P97" t="n">
         <v>597.5699999999997</v>
       </c>
     </row>
@@ -6023,23 +6316,26 @@
         <v>7</v>
       </c>
       <c r="J98" t="n">
+        <v>28</v>
+      </c>
+      <c r="K98" t="n">
         <v>8</v>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L98" t="n">
+      <c r="M98" t="n">
         <v>17</v>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>8</v>
       </c>
-      <c r="N98" t="n">
+      <c r="O98" t="n">
         <v>17.78333333333333</v>
       </c>
-      <c r="O98" t="n">
+      <c r="P98" t="n">
         <v>628.5499999999997</v>
       </c>
     </row>
@@ -6080,23 +6376,26 @@
         <v>7</v>
       </c>
       <c r="J99" t="n">
+        <v>28</v>
+      </c>
+      <c r="K99" t="n">
         <v>8</v>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L99" t="n">
+      <c r="M99" t="n">
         <v>11</v>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>8</v>
       </c>
-      <c r="N99" t="n">
+      <c r="O99" t="n">
         <v>11.78333333333333</v>
       </c>
-      <c r="O99" t="n">
+      <c r="P99" t="n">
         <v>641.8499999999998</v>
       </c>
     </row>
@@ -6137,23 +6436,26 @@
         <v>7</v>
       </c>
       <c r="J100" t="n">
-        <v>7</v>
-      </c>
-      <c r="K100" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K100" t="n">
+        <v>7</v>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L100" t="n">
+      <c r="M100" t="n">
         <v>23</v>
       </c>
-      <c r="M100" t="n">
-        <v>7</v>
-      </c>
       <c r="N100" t="n">
+        <v>7</v>
+      </c>
+      <c r="O100" t="n">
         <v>23.98333333333333</v>
       </c>
-      <c r="O100" t="n">
+      <c r="P100" t="n">
         <v>654.1499999999999</v>
       </c>
     </row>
@@ -6194,23 +6496,26 @@
         <v>7</v>
       </c>
       <c r="J101" t="n">
-        <v>7</v>
-      </c>
-      <c r="K101" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K101" t="n">
+        <v>7</v>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L101" t="n">
+      <c r="M101" t="n">
         <v>22</v>
       </c>
-      <c r="M101" t="n">
-        <v>7</v>
-      </c>
       <c r="N101" t="n">
+        <v>7</v>
+      </c>
+      <c r="O101" t="n">
         <v>22.16666666666667</v>
       </c>
-      <c r="O101" t="n">
+      <c r="P101" t="n">
         <v>686.1499999999999</v>
       </c>
     </row>
@@ -6251,23 +6556,26 @@
         <v>7</v>
       </c>
       <c r="J102" t="n">
-        <v>7</v>
-      </c>
-      <c r="K102" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K102" t="n">
+        <v>7</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L102" t="n">
+      <c r="M102" t="n">
         <v>21</v>
       </c>
-      <c r="M102" t="n">
-        <v>7</v>
-      </c>
       <c r="N102" t="n">
+        <v>7</v>
+      </c>
+      <c r="O102" t="n">
         <v>21.46666666666667</v>
       </c>
-      <c r="O102" t="n">
+      <c r="P102" t="n">
         <v>699.1499999999999</v>
       </c>
     </row>
@@ -6308,23 +6616,26 @@
         <v>7</v>
       </c>
       <c r="J103" t="n">
-        <v>7</v>
-      </c>
-      <c r="K103" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K103" t="n">
+        <v>7</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L103" t="n">
+      <c r="M103" t="n">
         <v>21</v>
       </c>
-      <c r="M103" t="n">
-        <v>7</v>
-      </c>
       <c r="N103" t="n">
+        <v>7</v>
+      </c>
+      <c r="O103" t="n">
         <v>21.05</v>
       </c>
-      <c r="O103" t="n">
+      <c r="P103" t="n">
         <v>703.1499999999999</v>
       </c>
     </row>
@@ -6365,23 +6676,26 @@
         <v>7</v>
       </c>
       <c r="J104" t="n">
-        <v>7</v>
-      </c>
-      <c r="K104" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K104" t="n">
+        <v>7</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L104" t="n">
+      <c r="M104" t="n">
         <v>20</v>
       </c>
-      <c r="M104" t="n">
-        <v>7</v>
-      </c>
       <c r="N104" t="n">
+        <v>7</v>
+      </c>
+      <c r="O104" t="n">
         <v>20.66666666666667</v>
       </c>
-      <c r="O104" t="n">
+      <c r="P104" t="n">
         <v>706.1499999999999</v>
       </c>
     </row>
@@ -6422,23 +6736,26 @@
         <v>7</v>
       </c>
       <c r="J105" t="n">
-        <v>7</v>
-      </c>
-      <c r="K105" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K105" t="n">
+        <v>7</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L105" t="n">
+      <c r="M105" t="n">
         <v>18</v>
       </c>
-      <c r="M105" t="n">
-        <v>7</v>
-      </c>
       <c r="N105" t="n">
+        <v>7</v>
+      </c>
+      <c r="O105" t="n">
         <v>18.33333333333333</v>
       </c>
-      <c r="O105" t="n">
+      <c r="P105" t="n">
         <v>714.3699999999999</v>
       </c>
     </row>
@@ -6479,23 +6796,26 @@
         <v>7</v>
       </c>
       <c r="J106" t="n">
-        <v>7</v>
-      </c>
-      <c r="K106" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K106" t="n">
+        <v>7</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L106" t="n">
+      <c r="M106" t="n">
         <v>18</v>
       </c>
-      <c r="M106" t="n">
-        <v>7</v>
-      </c>
       <c r="N106" t="n">
+        <v>7</v>
+      </c>
+      <c r="O106" t="n">
         <v>18.31666666666667</v>
       </c>
-      <c r="O106" t="n">
+      <c r="P106" t="n">
         <v>715.8699999999999</v>
       </c>
     </row>
@@ -6536,23 +6856,26 @@
         <v>7</v>
       </c>
       <c r="J107" t="n">
-        <v>7</v>
-      </c>
-      <c r="K107" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K107" t="n">
+        <v>7</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L107" t="n">
+      <c r="M107" t="n">
         <v>17</v>
       </c>
-      <c r="M107" t="n">
-        <v>7</v>
-      </c>
       <c r="N107" t="n">
+        <v>7</v>
+      </c>
+      <c r="O107" t="n">
         <v>17.31666666666667</v>
       </c>
-      <c r="O107" t="n">
+      <c r="P107" t="n">
         <v>730.6699999999998</v>
       </c>
     </row>
@@ -6593,23 +6916,26 @@
         <v>7</v>
       </c>
       <c r="J108" t="n">
-        <v>7</v>
-      </c>
-      <c r="K108" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K108" t="n">
+        <v>7</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L108" t="n">
+      <c r="M108" t="n">
         <v>13</v>
       </c>
-      <c r="M108" t="n">
-        <v>7</v>
-      </c>
       <c r="N108" t="n">
+        <v>7</v>
+      </c>
+      <c r="O108" t="n">
         <v>13.3</v>
       </c>
-      <c r="O108" t="n">
+      <c r="P108" t="n">
         <v>752.4499999999998</v>
       </c>
     </row>
@@ -6650,23 +6976,26 @@
         <v>7</v>
       </c>
       <c r="J109" t="n">
-        <v>7</v>
-      </c>
-      <c r="K109" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K109" t="n">
+        <v>7</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L109" t="n">
+      <c r="M109" t="n">
         <v>12</v>
       </c>
-      <c r="M109" t="n">
-        <v>7</v>
-      </c>
       <c r="N109" t="n">
+        <v>7</v>
+      </c>
+      <c r="O109" t="n">
         <v>12.95</v>
       </c>
-      <c r="O109" t="n">
+      <c r="P109" t="n">
         <v>757.9499999999998</v>
       </c>
     </row>
@@ -6707,23 +7036,26 @@
         <v>7</v>
       </c>
       <c r="J110" t="n">
-        <v>7</v>
-      </c>
-      <c r="K110" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K110" t="n">
+        <v>7</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L110" t="n">
+      <c r="M110" t="n">
         <v>12</v>
       </c>
-      <c r="M110" t="n">
-        <v>7</v>
-      </c>
       <c r="N110" t="n">
+        <v>7</v>
+      </c>
+      <c r="O110" t="n">
         <v>12.28333333333333</v>
       </c>
-      <c r="O110" t="n">
+      <c r="P110" t="n">
         <v>813.9499999999998</v>
       </c>
     </row>
@@ -6764,23 +7096,26 @@
         <v>7</v>
       </c>
       <c r="J111" t="n">
-        <v>7</v>
-      </c>
-      <c r="K111" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K111" t="n">
+        <v>7</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L111" t="n">
+      <c r="M111" t="n">
         <v>12</v>
       </c>
-      <c r="M111" t="n">
-        <v>7</v>
-      </c>
       <c r="N111" t="n">
+        <v>7</v>
+      </c>
+      <c r="O111" t="n">
         <v>12.26666666666667</v>
       </c>
-      <c r="O111" t="n">
+      <c r="P111" t="n">
         <v>821.4899999999998</v>
       </c>
     </row>
@@ -6821,23 +7156,26 @@
         <v>7</v>
       </c>
       <c r="J112" t="n">
-        <v>7</v>
-      </c>
-      <c r="K112" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K112" t="n">
+        <v>7</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L112" t="n">
+      <c r="M112" t="n">
         <v>12</v>
       </c>
-      <c r="M112" t="n">
-        <v>7</v>
-      </c>
       <c r="N112" t="n">
+        <v>7</v>
+      </c>
+      <c r="O112" t="n">
         <v>12.25</v>
       </c>
-      <c r="O112" t="n">
+      <c r="P112" t="n">
         <v>825.3899999999998</v>
       </c>
     </row>
@@ -6878,23 +7216,26 @@
         <v>7</v>
       </c>
       <c r="J113" t="n">
-        <v>7</v>
-      </c>
-      <c r="K113" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K113" t="n">
+        <v>7</v>
+      </c>
+      <c r="L113" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L113" t="n">
+      <c r="M113" t="n">
         <v>12</v>
       </c>
-      <c r="M113" t="n">
-        <v>7</v>
-      </c>
       <c r="N113" t="n">
+        <v>7</v>
+      </c>
+      <c r="O113" t="n">
         <v>12</v>
       </c>
-      <c r="O113" t="n">
+      <c r="P113" t="n">
         <v>829.3899999999998</v>
       </c>
     </row>
@@ -6935,23 +7276,26 @@
         <v>7</v>
       </c>
       <c r="J114" t="n">
+        <v>27</v>
+      </c>
+      <c r="K114" t="n">
         <v>6</v>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L114" t="n">
+      <c r="M114" t="n">
         <v>23</v>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>6</v>
       </c>
-      <c r="N114" t="n">
+      <c r="O114" t="n">
         <v>23.83333333333333</v>
       </c>
-      <c r="O114" t="n">
+      <c r="P114" t="n">
         <v>836.8899999999998</v>
       </c>
     </row>
@@ -6992,23 +7336,26 @@
         <v>7</v>
       </c>
       <c r="J115" t="n">
+        <v>27</v>
+      </c>
+      <c r="K115" t="n">
         <v>6</v>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L115" t="n">
+      <c r="M115" t="n">
         <v>18</v>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>6</v>
       </c>
-      <c r="N115" t="n">
+      <c r="O115" t="n">
         <v>18.81666666666667</v>
       </c>
-      <c r="O115" t="n">
+      <c r="P115" t="n">
         <v>271.8899999999998</v>
       </c>
     </row>
@@ -7049,23 +7396,26 @@
         <v>7</v>
       </c>
       <c r="J116" t="n">
+        <v>27</v>
+      </c>
+      <c r="K116" t="n">
         <v>6</v>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="L116" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L116" t="n">
+      <c r="M116" t="n">
         <v>18</v>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>6</v>
       </c>
-      <c r="N116" t="n">
+      <c r="O116" t="n">
         <v>18.8</v>
       </c>
-      <c r="O116" t="n">
+      <c r="P116" t="n">
         <v>283.8899999999998</v>
       </c>
     </row>
@@ -7106,23 +7456,26 @@
         <v>7</v>
       </c>
       <c r="J117" t="n">
+        <v>27</v>
+      </c>
+      <c r="K117" t="n">
         <v>6</v>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="L117" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L117" t="n">
+      <c r="M117" t="n">
         <v>15</v>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>6</v>
       </c>
-      <c r="N117" t="n">
+      <c r="O117" t="n">
         <v>15.65</v>
       </c>
-      <c r="O117" t="n">
+      <c r="P117" t="n">
         <v>294.9899999999998</v>
       </c>
     </row>
@@ -7163,23 +7516,26 @@
         <v>7</v>
       </c>
       <c r="J118" t="n">
+        <v>27</v>
+      </c>
+      <c r="K118" t="n">
         <v>6</v>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="L118" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>7</v>
-      </c>
       <c r="M118" t="n">
+        <v>7</v>
+      </c>
+      <c r="N118" t="n">
         <v>6</v>
       </c>
-      <c r="N118" t="n">
+      <c r="O118" t="n">
         <v>7.983333333333333</v>
       </c>
-      <c r="O118" t="n">
+      <c r="P118" t="n">
         <v>333.9899999999998</v>
       </c>
     </row>
@@ -7220,23 +7576,26 @@
         <v>7</v>
       </c>
       <c r="J119" t="n">
+        <v>27</v>
+      </c>
+      <c r="K119" t="n">
         <v>6</v>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="L119" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
       </c>
-      <c r="L119" t="n">
+      <c r="M119" t="n">
         <v>2</v>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>6</v>
       </c>
-      <c r="N119" t="n">
+      <c r="O119" t="n">
         <v>2.783333333333333</v>
       </c>
-      <c r="O119" t="n">
+      <c r="P119" t="n">
         <v>336.3899999999998</v>
       </c>
     </row>
@@ -7277,23 +7636,26 @@
         <v>7</v>
       </c>
       <c r="J120" t="n">
+        <v>27</v>
+      </c>
+      <c r="K120" t="n">
         <v>5</v>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
         <v>23</v>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>5</v>
       </c>
-      <c r="N120" t="n">
+      <c r="O120" t="n">
         <v>23.98333333333333</v>
       </c>
-      <c r="O120" t="n">
+      <c r="P120" t="n">
         <v>366.3899999999998</v>
       </c>
     </row>
@@ -7334,23 +7696,26 @@
         <v>7</v>
       </c>
       <c r="J121" t="n">
+        <v>27</v>
+      </c>
+      <c r="K121" t="n">
         <v>5</v>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="L121" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
         <v>20</v>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>5</v>
       </c>
-      <c r="N121" t="n">
+      <c r="O121" t="n">
         <v>20.73333333333333</v>
       </c>
-      <c r="O121" t="n">
+      <c r="P121" t="n">
         <v>372.3899999999998</v>
       </c>
     </row>
@@ -7391,23 +7756,26 @@
         <v>7</v>
       </c>
       <c r="J122" t="n">
+        <v>27</v>
+      </c>
+      <c r="K122" t="n">
         <v>5</v>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="L122" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="L122" t="n">
+      <c r="M122" t="n">
         <v>17</v>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>5</v>
       </c>
-      <c r="N122" t="n">
+      <c r="O122" t="n">
         <v>17.33333333333333</v>
       </c>
-      <c r="O122" t="n">
+      <c r="P122" t="n">
         <v>382.2699999999998</v>
       </c>
     </row>
@@ -7448,23 +7816,26 @@
         <v>7</v>
       </c>
       <c r="J123" t="n">
+        <v>27</v>
+      </c>
+      <c r="K123" t="n">
         <v>5</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="L123" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="L123" t="n">
+      <c r="M123" t="n">
         <v>11</v>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>5</v>
       </c>
-      <c r="N123" t="n">
+      <c r="O123" t="n">
         <v>11.56666666666667</v>
       </c>
-      <c r="O123" t="n">
+      <c r="P123" t="n">
         <v>405.2399999999998</v>
       </c>
     </row>
@@ -7505,23 +7876,26 @@
         <v>7</v>
       </c>
       <c r="J124" t="n">
+        <v>27</v>
+      </c>
+      <c r="K124" t="n">
         <v>5</v>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="L124" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>7</v>
-      </c>
       <c r="M124" t="n">
+        <v>7</v>
+      </c>
+      <c r="N124" t="n">
         <v>5</v>
       </c>
-      <c r="N124" t="n">
+      <c r="O124" t="n">
         <v>7.5</v>
       </c>
-      <c r="O124" t="n">
+      <c r="P124" t="n">
         <v>418.2399999999998</v>
       </c>
     </row>
@@ -7562,23 +7936,26 @@
         <v>7</v>
       </c>
       <c r="J125" t="n">
+        <v>27</v>
+      </c>
+      <c r="K125" t="n">
         <v>4</v>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="L125" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L125" t="n">
+      <c r="M125" t="n">
         <v>22</v>
       </c>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>4</v>
       </c>
-      <c r="N125" t="n">
+      <c r="O125" t="n">
         <v>22.33333333333333</v>
       </c>
-      <c r="O125" t="n">
+      <c r="P125" t="n">
         <v>423.2399999999998</v>
       </c>
     </row>
@@ -7619,23 +7996,26 @@
         <v>7</v>
       </c>
       <c r="J126" t="n">
+        <v>27</v>
+      </c>
+      <c r="K126" t="n">
         <v>4</v>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="L126" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L126" t="n">
+      <c r="M126" t="n">
         <v>17</v>
       </c>
-      <c r="M126" t="n">
+      <c r="N126" t="n">
         <v>4</v>
       </c>
-      <c r="N126" t="n">
+      <c r="O126" t="n">
         <v>17.63333333333333</v>
       </c>
-      <c r="O126" t="n">
+      <c r="P126" t="n">
         <v>429.2399999999998</v>
       </c>
     </row>
@@ -7676,23 +8056,26 @@
         <v>7</v>
       </c>
       <c r="J127" t="n">
+        <v>27</v>
+      </c>
+      <c r="K127" t="n">
         <v>4</v>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="L127" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L127" t="n">
+      <c r="M127" t="n">
         <v>17</v>
       </c>
-      <c r="M127" t="n">
+      <c r="N127" t="n">
         <v>4</v>
       </c>
-      <c r="N127" t="n">
+      <c r="O127" t="n">
         <v>17.58333333333333</v>
       </c>
-      <c r="O127" t="n">
+      <c r="P127" t="n">
         <v>445.3399999999997</v>
       </c>
     </row>
@@ -7733,23 +8116,26 @@
         <v>7</v>
       </c>
       <c r="J128" t="n">
+        <v>27</v>
+      </c>
+      <c r="K128" t="n">
         <v>4</v>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="L128" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L128" t="n">
+      <c r="M128" t="n">
         <v>12</v>
       </c>
-      <c r="M128" t="n">
+      <c r="N128" t="n">
         <v>4</v>
       </c>
-      <c r="N128" t="n">
+      <c r="O128" t="n">
         <v>12.5</v>
       </c>
-      <c r="O128" t="n">
+      <c r="P128" t="n">
         <v>450.1399999999998</v>
       </c>
     </row>
@@ -7790,23 +8176,26 @@
         <v>7</v>
       </c>
       <c r="J129" t="n">
+        <v>27</v>
+      </c>
+      <c r="K129" t="n">
         <v>4</v>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="L129" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L129" t="n">
+      <c r="M129" t="n">
         <v>11</v>
       </c>
-      <c r="M129" t="n">
+      <c r="N129" t="n">
         <v>4</v>
       </c>
-      <c r="N129" t="n">
+      <c r="O129" t="n">
         <v>11.5</v>
       </c>
-      <c r="O129" t="n">
+      <c r="P129" t="n">
         <v>459.7999999999997</v>
       </c>
     </row>
@@ -7847,23 +8236,26 @@
         <v>7</v>
       </c>
       <c r="J130" t="n">
+        <v>27</v>
+      </c>
+      <c r="K130" t="n">
         <v>4</v>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="L130" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>7</v>
-      </c>
       <c r="M130" t="n">
+        <v>7</v>
+      </c>
+      <c r="N130" t="n">
         <v>4</v>
       </c>
-      <c r="N130" t="n">
+      <c r="O130" t="n">
         <v>7.583333333333333</v>
       </c>
-      <c r="O130" t="n">
+      <c r="P130" t="n">
         <v>474.7999999999997</v>
       </c>
     </row>
@@ -7904,23 +8296,26 @@
         <v>7</v>
       </c>
       <c r="J131" t="n">
+        <v>27</v>
+      </c>
+      <c r="K131" t="n">
         <v>3</v>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="L131" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L131" t="n">
+      <c r="M131" t="n">
         <v>20</v>
       </c>
-      <c r="M131" t="n">
+      <c r="N131" t="n">
         <v>3</v>
       </c>
-      <c r="N131" t="n">
+      <c r="O131" t="n">
         <v>20.58333333333333</v>
       </c>
-      <c r="O131" t="n">
+      <c r="P131" t="n">
         <v>478.7999999999997</v>
       </c>
     </row>
@@ -7961,23 +8356,26 @@
         <v>7</v>
       </c>
       <c r="J132" t="n">
+        <v>27</v>
+      </c>
+      <c r="K132" t="n">
         <v>3</v>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="L132" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L132" t="n">
+      <c r="M132" t="n">
         <v>20</v>
       </c>
-      <c r="M132" t="n">
+      <c r="N132" t="n">
         <v>3</v>
       </c>
-      <c r="N132" t="n">
+      <c r="O132" t="n">
         <v>20.55</v>
       </c>
-      <c r="O132" t="n">
+      <c r="P132" t="n">
         <v>481.7999999999997</v>
       </c>
     </row>
@@ -8018,23 +8416,26 @@
         <v>7</v>
       </c>
       <c r="J133" t="n">
+        <v>27</v>
+      </c>
+      <c r="K133" t="n">
         <v>3</v>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="L133" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L133" t="n">
+      <c r="M133" t="n">
         <v>18</v>
       </c>
-      <c r="M133" t="n">
+      <c r="N133" t="n">
         <v>3</v>
       </c>
-      <c r="N133" t="n">
+      <c r="O133" t="n">
         <v>18.53333333333333</v>
       </c>
-      <c r="O133" t="n">
+      <c r="P133" t="n">
         <v>486.7999999999997</v>
       </c>
     </row>
@@ -8075,23 +8476,26 @@
         <v>7</v>
       </c>
       <c r="J134" t="n">
+        <v>27</v>
+      </c>
+      <c r="K134" t="n">
         <v>3</v>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="L134" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L134" t="n">
+      <c r="M134" t="n">
         <v>17</v>
       </c>
-      <c r="M134" t="n">
+      <c r="N134" t="n">
         <v>3</v>
       </c>
-      <c r="N134" t="n">
+      <c r="O134" t="n">
         <v>17</v>
       </c>
-      <c r="O134" t="n">
+      <c r="P134" t="n">
         <v>559.7999999999997</v>
       </c>
     </row>
@@ -8132,23 +8536,26 @@
         <v>7</v>
       </c>
       <c r="J135" t="n">
+        <v>27</v>
+      </c>
+      <c r="K135" t="n">
         <v>3</v>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="L135" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L135" t="n">
+      <c r="M135" t="n">
         <v>16</v>
       </c>
-      <c r="M135" t="n">
+      <c r="N135" t="n">
         <v>3</v>
       </c>
-      <c r="N135" t="n">
+      <c r="O135" t="n">
         <v>16.91666666666667</v>
       </c>
-      <c r="O135" t="n">
+      <c r="P135" t="n">
         <v>562.7999999999997</v>
       </c>
     </row>
@@ -8189,23 +8596,26 @@
         <v>7</v>
       </c>
       <c r="J136" t="n">
+        <v>27</v>
+      </c>
+      <c r="K136" t="n">
         <v>3</v>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="L136" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>7</v>
-      </c>
       <c r="M136" t="n">
+        <v>7</v>
+      </c>
+      <c r="N136" t="n">
         <v>3</v>
       </c>
-      <c r="N136" t="n">
+      <c r="O136" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="O136" t="n">
+      <c r="P136" t="n">
         <v>564.2999999999997</v>
       </c>
     </row>
@@ -8246,23 +8656,26 @@
         <v>7</v>
       </c>
       <c r="J137" t="n">
+        <v>27</v>
+      </c>
+      <c r="K137" t="n">
         <v>3</v>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="L137" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="L137" t="n">
+      <c r="M137" t="n">
         <v>0</v>
       </c>
-      <c r="M137" t="n">
+      <c r="N137" t="n">
         <v>3</v>
       </c>
-      <c r="N137" t="n">
+      <c r="O137" t="n">
         <v>0.5666666666666667</v>
       </c>
-      <c r="O137" t="n">
+      <c r="P137" t="n">
         <v>568.2999999999997</v>
       </c>
     </row>
@@ -8303,23 +8716,26 @@
         <v>7</v>
       </c>
       <c r="J138" t="n">
+        <v>27</v>
+      </c>
+      <c r="K138" t="n">
         <v>2</v>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="L138" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L138" t="n">
+      <c r="M138" t="n">
         <v>17</v>
       </c>
-      <c r="M138" t="n">
+      <c r="N138" t="n">
         <v>2</v>
       </c>
-      <c r="N138" t="n">
+      <c r="O138" t="n">
         <v>17.96666666666667</v>
       </c>
-      <c r="O138" t="n">
+      <c r="P138" t="n">
         <v>606.0999999999997</v>
       </c>
     </row>
@@ -8360,23 +8776,26 @@
         <v>7</v>
       </c>
       <c r="J139" t="n">
+        <v>27</v>
+      </c>
+      <c r="K139" t="n">
         <v>2</v>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="L139" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L139" t="n">
+      <c r="M139" t="n">
         <v>17</v>
       </c>
-      <c r="M139" t="n">
+      <c r="N139" t="n">
         <v>2</v>
       </c>
-      <c r="N139" t="n">
+      <c r="O139" t="n">
         <v>17.91666666666667</v>
       </c>
-      <c r="O139" t="n">
+      <c r="P139" t="n">
         <v>645.8999999999997</v>
       </c>
     </row>
@@ -8417,23 +8836,26 @@
         <v>7</v>
       </c>
       <c r="J140" t="n">
+        <v>27</v>
+      </c>
+      <c r="K140" t="n">
         <v>2</v>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="L140" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L140" t="n">
+      <c r="M140" t="n">
         <v>17</v>
       </c>
-      <c r="M140" t="n">
+      <c r="N140" t="n">
         <v>2</v>
       </c>
-      <c r="N140" t="n">
+      <c r="O140" t="n">
         <v>17.91666666666667</v>
       </c>
-      <c r="O140" t="n">
+      <c r="P140" t="n">
         <v>658.3999999999997</v>
       </c>
     </row>
@@ -8474,23 +8896,26 @@
         <v>7</v>
       </c>
       <c r="J141" t="n">
+        <v>27</v>
+      </c>
+      <c r="K141" t="n">
         <v>2</v>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="L141" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L141" t="n">
+      <c r="M141" t="n">
         <v>11</v>
       </c>
-      <c r="M141" t="n">
+      <c r="N141" t="n">
         <v>2</v>
       </c>
-      <c r="N141" t="n">
+      <c r="O141" t="n">
         <v>11.31666666666667</v>
       </c>
-      <c r="O141" t="n">
+      <c r="P141" t="n">
         <v>686.0199999999998</v>
       </c>
     </row>
@@ -8531,23 +8956,26 @@
         <v>7</v>
       </c>
       <c r="J142" t="n">
+        <v>27</v>
+      </c>
+      <c r="K142" t="n">
         <v>2</v>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="L142" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>7</v>
-      </c>
       <c r="M142" t="n">
+        <v>7</v>
+      </c>
+      <c r="N142" t="n">
         <v>2</v>
       </c>
-      <c r="N142" t="n">
+      <c r="O142" t="n">
         <v>7.666666666666667</v>
       </c>
-      <c r="O142" t="n">
+      <c r="P142" t="n">
         <v>708.0199999999998</v>
       </c>
     </row>
@@ -8588,23 +9016,26 @@
         <v>7</v>
       </c>
       <c r="J143" t="n">
+        <v>27</v>
+      </c>
+      <c r="K143" t="n">
         <v>2</v>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="L143" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
-      </c>
-      <c r="L143" t="n">
-        <v>2</v>
       </c>
       <c r="M143" t="n">
         <v>2</v>
       </c>
       <c r="N143" t="n">
+        <v>2</v>
+      </c>
+      <c r="O143" t="n">
         <v>2.15</v>
       </c>
-      <c r="O143" t="n">
+      <c r="P143" t="n">
         <v>713.0199999999998</v>
       </c>
     </row>
@@ -8645,23 +9076,26 @@
         <v>7</v>
       </c>
       <c r="J144" t="n">
+        <v>27</v>
+      </c>
+      <c r="K144" t="n">
         <v>1</v>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="L144" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L144" t="n">
+      <c r="M144" t="n">
         <v>18</v>
       </c>
-      <c r="M144" t="n">
+      <c r="N144" t="n">
         <v>1</v>
       </c>
-      <c r="N144" t="n">
+      <c r="O144" t="n">
         <v>18</v>
       </c>
-      <c r="O144" t="n">
+      <c r="P144" t="n">
         <v>721.9199999999997</v>
       </c>
     </row>
@@ -8702,23 +9136,26 @@
         <v>7</v>
       </c>
       <c r="J145" t="n">
+        <v>27</v>
+      </c>
+      <c r="K145" t="n">
         <v>1</v>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="L145" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L145" t="n">
+      <c r="M145" t="n">
         <v>17</v>
       </c>
-      <c r="M145" t="n">
+      <c r="N145" t="n">
         <v>1</v>
       </c>
-      <c r="N145" t="n">
+      <c r="O145" t="n">
         <v>17.33333333333333</v>
       </c>
-      <c r="O145" t="n">
+      <c r="P145" t="n">
         <v>761.3199999999997</v>
       </c>
     </row>
@@ -8759,23 +9196,26 @@
         <v>7</v>
       </c>
       <c r="J146" t="n">
+        <v>27</v>
+      </c>
+      <c r="K146" t="n">
         <v>1</v>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="L146" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L146" t="n">
+      <c r="M146" t="n">
         <v>10</v>
       </c>
-      <c r="M146" t="n">
+      <c r="N146" t="n">
         <v>1</v>
       </c>
-      <c r="N146" t="n">
+      <c r="O146" t="n">
         <v>10.68333333333333</v>
       </c>
-      <c r="O146" t="n">
+      <c r="P146" t="n">
         <v>788.5699999999997</v>
       </c>
     </row>
@@ -8816,23 +9256,26 @@
         <v>7</v>
       </c>
       <c r="J147" t="n">
+        <v>27</v>
+      </c>
+      <c r="K147" t="n">
         <v>1</v>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="L147" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>7</v>
-      </c>
       <c r="M147" t="n">
+        <v>7</v>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
-      <c r="N147" t="n">
+      <c r="O147" t="n">
         <v>7.983333333333333</v>
       </c>
-      <c r="O147" t="n">
+      <c r="P147" t="n">
         <v>815.4499999999997</v>
       </c>
     </row>
@@ -8873,23 +9316,26 @@
         <v>6</v>
       </c>
       <c r="J148" t="n">
+        <v>26</v>
+      </c>
+      <c r="K148" t="n">
         <v>30</v>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="L148" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L148" t="n">
+      <c r="M148" t="n">
         <v>21</v>
       </c>
-      <c r="M148" t="n">
+      <c r="N148" t="n">
         <v>0</v>
       </c>
-      <c r="N148" t="n">
+      <c r="O148" t="n">
         <v>21.25</v>
       </c>
-      <c r="O148" t="n">
+      <c r="P148" t="n">
         <v>820.4499999999997</v>
       </c>
     </row>
@@ -8930,23 +9376,26 @@
         <v>6</v>
       </c>
       <c r="J149" t="n">
+        <v>26</v>
+      </c>
+      <c r="K149" t="n">
         <v>30</v>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="L149" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L149" t="n">
+      <c r="M149" t="n">
         <v>20</v>
       </c>
-      <c r="M149" t="n">
+      <c r="N149" t="n">
         <v>0</v>
       </c>
-      <c r="N149" t="n">
+      <c r="O149" t="n">
         <v>20.85</v>
       </c>
-      <c r="O149" t="n">
+      <c r="P149" t="n">
         <v>824.4499999999997</v>
       </c>
     </row>
@@ -8987,23 +9436,26 @@
         <v>6</v>
       </c>
       <c r="J150" t="n">
+        <v>26</v>
+      </c>
+      <c r="K150" t="n">
         <v>30</v>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="L150" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L150" t="n">
+      <c r="M150" t="n">
         <v>20</v>
       </c>
-      <c r="M150" t="n">
+      <c r="N150" t="n">
         <v>0</v>
       </c>
-      <c r="N150" t="n">
+      <c r="O150" t="n">
         <v>20.71666666666667</v>
       </c>
-      <c r="O150" t="n">
+      <c r="P150" t="n">
         <v>835.1299999999997</v>
       </c>
     </row>
@@ -9044,23 +9496,26 @@
         <v>6</v>
       </c>
       <c r="J151" t="n">
+        <v>26</v>
+      </c>
+      <c r="K151" t="n">
         <v>30</v>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="L151" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L151" t="n">
+      <c r="M151" t="n">
         <v>20</v>
       </c>
-      <c r="M151" t="n">
+      <c r="N151" t="n">
         <v>0</v>
       </c>
-      <c r="N151" t="n">
+      <c r="O151" t="n">
         <v>20.68333333333333</v>
       </c>
-      <c r="O151" t="n">
+      <c r="P151" t="n">
         <v>893.9299999999996</v>
       </c>
     </row>
@@ -9101,23 +9556,26 @@
         <v>6</v>
       </c>
       <c r="J152" t="n">
+        <v>26</v>
+      </c>
+      <c r="K152" t="n">
         <v>30</v>
       </c>
-      <c r="K152" t="inlineStr">
+      <c r="L152" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L152" t="n">
+      <c r="M152" t="n">
         <v>20</v>
       </c>
-      <c r="M152" t="n">
+      <c r="N152" t="n">
         <v>0</v>
       </c>
-      <c r="N152" t="n">
+      <c r="O152" t="n">
         <v>20.45</v>
       </c>
-      <c r="O152" t="n">
+      <c r="P152" t="n">
         <v>918.9299999999996</v>
       </c>
     </row>
@@ -9158,23 +9616,26 @@
         <v>6</v>
       </c>
       <c r="J153" t="n">
+        <v>26</v>
+      </c>
+      <c r="K153" t="n">
         <v>30</v>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="L153" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L153" t="n">
+      <c r="M153" t="n">
         <v>18</v>
       </c>
-      <c r="M153" t="n">
+      <c r="N153" t="n">
         <v>0</v>
       </c>
-      <c r="N153" t="n">
+      <c r="O153" t="n">
         <v>18.58333333333333</v>
       </c>
-      <c r="O153" t="n">
+      <c r="P153" t="n">
         <v>940.7299999999996</v>
       </c>
     </row>
@@ -9215,23 +9676,26 @@
         <v>6</v>
       </c>
       <c r="J154" t="n">
+        <v>26</v>
+      </c>
+      <c r="K154" t="n">
         <v>30</v>
       </c>
-      <c r="K154" t="inlineStr">
+      <c r="L154" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L154" t="n">
+      <c r="M154" t="n">
         <v>18</v>
       </c>
-      <c r="M154" t="n">
+      <c r="N154" t="n">
         <v>0</v>
       </c>
-      <c r="N154" t="n">
+      <c r="O154" t="n">
         <v>18.05</v>
       </c>
-      <c r="O154" t="n">
+      <c r="P154" t="n">
         <v>952.2299999999996</v>
       </c>
     </row>
@@ -9272,23 +9736,26 @@
         <v>6</v>
       </c>
       <c r="J155" t="n">
+        <v>26</v>
+      </c>
+      <c r="K155" t="n">
         <v>30</v>
       </c>
-      <c r="K155" t="inlineStr">
+      <c r="L155" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L155" t="n">
+      <c r="M155" t="n">
         <v>16</v>
       </c>
-      <c r="M155" t="n">
+      <c r="N155" t="n">
         <v>0</v>
       </c>
-      <c r="N155" t="n">
+      <c r="O155" t="n">
         <v>16.88333333333333</v>
       </c>
-      <c r="O155" t="n">
+      <c r="P155" t="n">
         <v>965.1299999999995</v>
       </c>
     </row>
@@ -9329,23 +9796,26 @@
         <v>6</v>
       </c>
       <c r="J156" t="n">
+        <v>26</v>
+      </c>
+      <c r="K156" t="n">
         <v>30</v>
       </c>
-      <c r="K156" t="inlineStr">
+      <c r="L156" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L156" t="n">
+      <c r="M156" t="n">
         <v>16</v>
       </c>
-      <c r="M156" t="n">
+      <c r="N156" t="n">
         <v>0</v>
       </c>
-      <c r="N156" t="n">
+      <c r="O156" t="n">
         <v>16</v>
       </c>
-      <c r="O156" t="n">
+      <c r="P156" t="n">
         <v>975.1299999999995</v>
       </c>
     </row>
@@ -9386,23 +9856,26 @@
         <v>6</v>
       </c>
       <c r="J157" t="n">
+        <v>26</v>
+      </c>
+      <c r="K157" t="n">
         <v>30</v>
       </c>
-      <c r="K157" t="inlineStr">
+      <c r="L157" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L157" t="n">
+      <c r="M157" t="n">
         <v>15</v>
       </c>
-      <c r="M157" t="n">
+      <c r="N157" t="n">
         <v>0</v>
       </c>
-      <c r="N157" t="n">
+      <c r="O157" t="n">
         <v>15.48333333333333</v>
       </c>
-      <c r="O157" t="n">
+      <c r="P157" t="n">
         <v>980.5999999999996</v>
       </c>
     </row>
@@ -9443,23 +9916,26 @@
         <v>6</v>
       </c>
       <c r="J158" t="n">
+        <v>26</v>
+      </c>
+      <c r="K158" t="n">
         <v>30</v>
       </c>
-      <c r="K158" t="inlineStr">
+      <c r="L158" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="L158" t="n">
+      <c r="M158" t="n">
         <v>11</v>
       </c>
-      <c r="M158" t="n">
+      <c r="N158" t="n">
         <v>0</v>
       </c>
-      <c r="N158" t="n">
+      <c r="O158" t="n">
         <v>11.31666666666667</v>
       </c>
-      <c r="O158" t="n">
+      <c r="P158" t="n">
         <v>984.5999999999996</v>
       </c>
     </row>

--- a/bill_ok_proc.xlsx
+++ b/bill_ok_proc.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P158"/>
+  <dimension ref="A1:R158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,16 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>相对月内日</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>相对星期天</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>余额</t>
         </is>
       </c>
@@ -573,9 +583,15 @@
         <v>25</v>
       </c>
       <c r="O2" t="n">
+        <v>25.71180555555555</v>
+      </c>
+      <c r="P2" t="n">
         <v>17.08333333333333</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
+        <v>3.711805555555556</v>
+      </c>
+      <c r="R2" t="n">
         <v>295.23</v>
       </c>
     </row>
@@ -633,9 +649,15 @@
         <v>25</v>
       </c>
       <c r="O3" t="n">
+        <v>25.6875</v>
+      </c>
+      <c r="P3" t="n">
         <v>16.5</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
+        <v>3.6875</v>
+      </c>
+      <c r="R3" t="n">
         <v>309.53</v>
       </c>
     </row>
@@ -693,9 +715,15 @@
         <v>25</v>
       </c>
       <c r="O4" t="n">
+        <v>25.53888888888889</v>
+      </c>
+      <c r="P4" t="n">
         <v>12.93333333333333</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
+        <v>3.538888888888889</v>
+      </c>
+      <c r="R4" t="n">
         <v>311.53</v>
       </c>
     </row>
@@ -753,9 +781,15 @@
         <v>25</v>
       </c>
       <c r="O5" t="n">
+        <v>25.49375</v>
+      </c>
+      <c r="P5" t="n">
         <v>11.85</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
+        <v>3.49375</v>
+      </c>
+      <c r="R5" t="n">
         <v>316.59</v>
       </c>
     </row>
@@ -813,9 +847,15 @@
         <v>25</v>
       </c>
       <c r="O6" t="n">
+        <v>25.46388888888889</v>
+      </c>
+      <c r="P6" t="n">
         <v>11.13333333333333</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
+        <v>3.463888888888889</v>
+      </c>
+      <c r="R6" t="n">
         <v>330.59</v>
       </c>
     </row>
@@ -873,9 +913,15 @@
         <v>25</v>
       </c>
       <c r="O7" t="n">
+        <v>25.02916666666667</v>
+      </c>
+      <c r="P7" t="n">
         <v>0.7</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
+        <v>3.029166666666667</v>
+      </c>
+      <c r="R7" t="n">
         <v>327.79</v>
       </c>
     </row>
@@ -933,9 +979,15 @@
         <v>24</v>
       </c>
       <c r="O8" t="n">
+        <v>24.88888888888889</v>
+      </c>
+      <c r="P8" t="n">
         <v>21.33333333333333</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
+        <v>2.888888888888889</v>
+      </c>
+      <c r="R8" t="n">
         <v>353.59</v>
       </c>
     </row>
@@ -993,9 +1045,15 @@
         <v>24</v>
       </c>
       <c r="O9" t="n">
+        <v>24.72777777777778</v>
+      </c>
+      <c r="P9" t="n">
         <v>17.46666666666667</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
+        <v>2.727777777777778</v>
+      </c>
+      <c r="R9" t="n">
         <v>453.19</v>
       </c>
     </row>
@@ -1053,9 +1111,15 @@
         <v>24</v>
       </c>
       <c r="O10" t="n">
+        <v>24.4625</v>
+      </c>
+      <c r="P10" t="n">
         <v>11.1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
+        <v>2.4625</v>
+      </c>
+      <c r="R10" t="n">
         <v>468.99</v>
       </c>
     </row>
@@ -1113,9 +1177,15 @@
         <v>23</v>
       </c>
       <c r="O11" t="n">
+        <v>23.95833333333333</v>
+      </c>
+      <c r="P11" t="n">
         <v>23</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
+        <v>1.958333333333333</v>
+      </c>
+      <c r="R11" t="n">
         <v>490.99</v>
       </c>
     </row>
@@ -1173,9 +1243,15 @@
         <v>23</v>
       </c>
       <c r="O12" t="n">
+        <v>23.72361111111111</v>
+      </c>
+      <c r="P12" t="n">
         <v>17.36666666666667</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
+        <v>1.723611111111111</v>
+      </c>
+      <c r="R12" t="n">
         <v>498.99</v>
       </c>
     </row>
@@ -1233,9 +1309,15 @@
         <v>23</v>
       </c>
       <c r="O13" t="n">
+        <v>23.43958333333333</v>
+      </c>
+      <c r="P13" t="n">
         <v>10.55</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
+        <v>1.439583333333333</v>
+      </c>
+      <c r="R13" t="n">
         <v>551.79</v>
       </c>
     </row>
@@ -1293,9 +1375,15 @@
         <v>23</v>
       </c>
       <c r="O14" t="n">
+        <v>23.03125</v>
+      </c>
+      <c r="P14" t="n">
         <v>0.75</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
+        <v>1.03125</v>
+      </c>
+      <c r="R14" t="n">
         <v>594.13</v>
       </c>
     </row>
@@ -1353,9 +1441,15 @@
         <v>22</v>
       </c>
       <c r="O15" t="n">
+        <v>22.84861111111111</v>
+      </c>
+      <c r="P15" t="n">
         <v>20.36666666666667</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
+        <v>0.8486111111111111</v>
+      </c>
+      <c r="R15" t="n">
         <v>613.53</v>
       </c>
     </row>
@@ -1413,9 +1507,15 @@
         <v>22</v>
       </c>
       <c r="O16" t="n">
+        <v>22.84236111111111</v>
+      </c>
+      <c r="P16" t="n">
         <v>20.21666666666667</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
+        <v>0.8423611111111111</v>
+      </c>
+      <c r="R16" t="n">
         <v>649.73</v>
       </c>
     </row>
@@ -1473,9 +1573,15 @@
         <v>22</v>
       </c>
       <c r="O17" t="n">
+        <v>22.72569444444444</v>
+      </c>
+      <c r="P17" t="n">
         <v>17.41666666666667</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
+        <v>0.7256944444444445</v>
+      </c>
+      <c r="R17" t="n">
         <v>655.73</v>
       </c>
     </row>
@@ -1533,9 +1639,15 @@
         <v>22</v>
       </c>
       <c r="O18" t="n">
+        <v>22.45625</v>
+      </c>
+      <c r="P18" t="n">
         <v>10.95</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
+        <v>0.45625</v>
+      </c>
+      <c r="R18" t="n">
         <v>673.6099999999999</v>
       </c>
     </row>
@@ -1593,9 +1705,15 @@
         <v>22</v>
       </c>
       <c r="O19" t="n">
+        <v>22.04722222222222</v>
+      </c>
+      <c r="P19" t="n">
         <v>1.133333333333333</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
+        <v>0.04722222222222222</v>
+      </c>
+      <c r="R19" t="n">
         <v>688.6099999999999</v>
       </c>
     </row>
@@ -1653,9 +1771,15 @@
         <v>21</v>
       </c>
       <c r="O20" t="n">
+        <v>21.98611111111111</v>
+      </c>
+      <c r="P20" t="n">
         <v>23.66666666666667</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
+        <v>6.986111111111111</v>
+      </c>
+      <c r="R20" t="n">
         <v>718.6099999999999</v>
       </c>
     </row>
@@ -1713,9 +1837,15 @@
         <v>21</v>
       </c>
       <c r="O21" t="n">
+        <v>21.91319444444444</v>
+      </c>
+      <c r="P21" t="n">
         <v>21.91666666666667</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
+        <v>6.913194444444445</v>
+      </c>
+      <c r="R21" t="n">
         <v>778.6099999999999</v>
       </c>
     </row>
@@ -1773,9 +1903,15 @@
         <v>21</v>
       </c>
       <c r="O22" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="P22" t="n">
         <v>21.6</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="R22" t="n">
         <v>775.1899999999999</v>
       </c>
     </row>
@@ -1833,9 +1969,15 @@
         <v>21</v>
       </c>
       <c r="O23" t="n">
+        <v>21.73055555555555</v>
+      </c>
+      <c r="P23" t="n">
         <v>17.53333333333333</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
+        <v>6.730555555555555</v>
+      </c>
+      <c r="R23" t="n">
         <v>778.1899999999999</v>
       </c>
     </row>
@@ -1893,9 +2035,15 @@
         <v>21</v>
       </c>
       <c r="O24" t="n">
+        <v>21.59375</v>
+      </c>
+      <c r="P24" t="n">
         <v>14.25</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
+        <v>6.59375</v>
+      </c>
+      <c r="R24" t="n">
         <v>781.1899999999999</v>
       </c>
     </row>
@@ -1953,9 +2101,15 @@
         <v>21</v>
       </c>
       <c r="O25" t="n">
+        <v>21.55347222222222</v>
+      </c>
+      <c r="P25" t="n">
         <v>13.28333333333333</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
+        <v>6.553472222222222</v>
+      </c>
+      <c r="R25" t="n">
         <v>786.0899999999999</v>
       </c>
     </row>
@@ -2013,9 +2167,15 @@
         <v>21</v>
       </c>
       <c r="O26" t="n">
+        <v>21.51111111111111</v>
+      </c>
+      <c r="P26" t="n">
         <v>12.26666666666667</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
+        <v>6.511111111111111</v>
+      </c>
+      <c r="R26" t="n">
         <v>877.8899999999999</v>
       </c>
     </row>
@@ -2073,9 +2233,15 @@
         <v>21</v>
       </c>
       <c r="O27" t="n">
+        <v>21.50138888888889</v>
+      </c>
+      <c r="P27" t="n">
         <v>12.03333333333333</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
+        <v>6.501388888888889</v>
+      </c>
+      <c r="R27" t="n">
         <v>1042.89</v>
       </c>
     </row>
@@ -2133,9 +2299,15 @@
         <v>20</v>
       </c>
       <c r="O28" t="n">
+        <v>20.99305555555555</v>
+      </c>
+      <c r="P28" t="n">
         <v>23.83333333333333</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
+        <v>5.993055555555555</v>
+      </c>
+      <c r="R28" t="n">
         <v>1045.39</v>
       </c>
     </row>
@@ -2193,9 +2365,15 @@
         <v>20</v>
       </c>
       <c r="O29" t="n">
+        <v>20.87222222222222</v>
+      </c>
+      <c r="P29" t="n">
         <v>20.93333333333333</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
+        <v>5.872222222222222</v>
+      </c>
+      <c r="R29" t="n">
         <v>1075.39</v>
       </c>
     </row>
@@ -2253,9 +2431,15 @@
         <v>20</v>
       </c>
       <c r="O30" t="n">
+        <v>20.74513888888889</v>
+      </c>
+      <c r="P30" t="n">
         <v>17.88333333333333</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
+        <v>5.745138888888889</v>
+      </c>
+      <c r="R30" t="n">
         <v>1045.39</v>
       </c>
     </row>
@@ -2313,9 +2497,15 @@
         <v>20</v>
       </c>
       <c r="O31" t="n">
+        <v>20.51736111111111</v>
+      </c>
+      <c r="P31" t="n">
         <v>12.41666666666667</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
+        <v>5.517361111111111</v>
+      </c>
+      <c r="R31" t="n">
         <v>1059.29</v>
       </c>
     </row>
@@ -2373,9 +2563,15 @@
         <v>20</v>
       </c>
       <c r="O32" t="n">
+        <v>20.50902777777778</v>
+      </c>
+      <c r="P32" t="n">
         <v>12.21666666666667</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
+        <v>5.509027777777778</v>
+      </c>
+      <c r="R32" t="n">
         <v>1061.13</v>
       </c>
     </row>
@@ -2433,9 +2629,15 @@
         <v>20</v>
       </c>
       <c r="O33" t="n">
+        <v>20.47430555555555</v>
+      </c>
+      <c r="P33" t="n">
         <v>11.38333333333333</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
+        <v>5.474305555555556</v>
+      </c>
+      <c r="R33" t="n">
         <v>1066.19</v>
       </c>
     </row>
@@ -2493,9 +2695,15 @@
         <v>20</v>
       </c>
       <c r="O34" t="n">
+        <v>20.35416666666666</v>
+      </c>
+      <c r="P34" t="n">
         <v>8.5</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
+        <v>5.354166666666666</v>
+      </c>
+      <c r="R34" t="n">
         <v>1081.19</v>
       </c>
     </row>
@@ -2553,9 +2761,15 @@
         <v>20</v>
       </c>
       <c r="O35" t="n">
+        <v>20.31597222222222</v>
+      </c>
+      <c r="P35" t="n">
         <v>7.583333333333333</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
+        <v>5.315972222222222</v>
+      </c>
+      <c r="R35" t="n">
         <v>81.18999999999983</v>
       </c>
     </row>
@@ -2613,9 +2827,15 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
+        <v>19.99791666666667</v>
+      </c>
+      <c r="P36" t="n">
         <v>23.95</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
+        <v>4.997916666666667</v>
+      </c>
+      <c r="R36" t="n">
         <v>95.18999999999983</v>
       </c>
     </row>
@@ -2673,9 +2893,15 @@
         <v>19</v>
       </c>
       <c r="O37" t="n">
+        <v>19.91736111111111</v>
+      </c>
+      <c r="P37" t="n">
         <v>22.01666666666667</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
+        <v>4.917361111111111</v>
+      </c>
+      <c r="R37" t="n">
         <v>124.8199999999998</v>
       </c>
     </row>
@@ -2733,9 +2959,15 @@
         <v>19</v>
       </c>
       <c r="O38" t="n">
+        <v>19.72638888888889</v>
+      </c>
+      <c r="P38" t="n">
         <v>17.43333333333333</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
+        <v>4.726388888888889</v>
+      </c>
+      <c r="R38" t="n">
         <v>125.8199999999998</v>
       </c>
     </row>
@@ -2793,9 +3025,15 @@
         <v>19</v>
       </c>
       <c r="O39" t="n">
+        <v>19.60277777777778</v>
+      </c>
+      <c r="P39" t="n">
         <v>14.46666666666667</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
+        <v>4.602777777777778</v>
+      </c>
+      <c r="R39" t="n">
         <v>141.2199999999998</v>
       </c>
     </row>
@@ -2853,9 +3091,15 @@
         <v>19</v>
       </c>
       <c r="O40" t="n">
+        <v>19.475</v>
+      </c>
+      <c r="P40" t="n">
         <v>11.4</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
+        <v>4.475</v>
+      </c>
+      <c r="R40" t="n">
         <v>146.2199999999998</v>
       </c>
     </row>
@@ -2913,9 +3157,15 @@
         <v>18</v>
       </c>
       <c r="O41" t="n">
+        <v>18.96388888888889</v>
+      </c>
+      <c r="P41" t="n">
         <v>23.13333333333333</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
+        <v>3.963888888888889</v>
+      </c>
+      <c r="R41" t="n">
         <v>159.5199999999998</v>
       </c>
     </row>
@@ -2973,9 +3223,15 @@
         <v>18</v>
       </c>
       <c r="O42" t="n">
+        <v>18.92083333333333</v>
+      </c>
+      <c r="P42" t="n">
         <v>22.1</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
+        <v>3.920833333333333</v>
+      </c>
+      <c r="R42" t="n">
         <v>165.5199999999998</v>
       </c>
     </row>
@@ -3033,9 +3289,15 @@
         <v>18</v>
       </c>
       <c r="O43" t="n">
+        <v>18.5125</v>
+      </c>
+      <c r="P43" t="n">
         <v>12.3</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
+        <v>3.5125</v>
+      </c>
+      <c r="R43" t="n">
         <v>202.7899999999998</v>
       </c>
     </row>
@@ -3093,9 +3355,15 @@
         <v>18</v>
       </c>
       <c r="O44" t="n">
+        <v>18.47916666666666</v>
+      </c>
+      <c r="P44" t="n">
         <v>11.5</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
+        <v>3.479166666666667</v>
+      </c>
+      <c r="R44" t="n">
         <v>212.4499999999998</v>
       </c>
     </row>
@@ -3153,9 +3421,15 @@
         <v>18</v>
       </c>
       <c r="O45" t="n">
+        <v>18.43055555555556</v>
+      </c>
+      <c r="P45" t="n">
         <v>10.33333333333333</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
+        <v>3.430555555555555</v>
+      </c>
+      <c r="R45" t="n">
         <v>226.4499999999998</v>
       </c>
     </row>
@@ -3213,9 +3487,15 @@
         <v>17</v>
       </c>
       <c r="O46" t="n">
+        <v>17.72361111111111</v>
+      </c>
+      <c r="P46" t="n">
         <v>17.36666666666667</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
+        <v>2.723611111111111</v>
+      </c>
+      <c r="R46" t="n">
         <v>244.6499999999999</v>
       </c>
     </row>
@@ -3273,9 +3553,15 @@
         <v>17</v>
       </c>
       <c r="O47" t="n">
+        <v>17.65486111111111</v>
+      </c>
+      <c r="P47" t="n">
         <v>15.71666666666667</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
+        <v>2.654861111111111</v>
+      </c>
+      <c r="R47" t="n">
         <v>253.9499999999998</v>
       </c>
     </row>
@@ -3333,9 +3619,15 @@
         <v>17</v>
       </c>
       <c r="O48" t="n">
+        <v>17.49791666666667</v>
+      </c>
+      <c r="P48" t="n">
         <v>11.95</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
+        <v>2.497916666666667</v>
+      </c>
+      <c r="R48" t="n">
         <v>257.7499999999998</v>
       </c>
     </row>
@@ -3393,9 +3685,15 @@
         <v>17</v>
       </c>
       <c r="O49" t="n">
+        <v>17.04236111111111</v>
+      </c>
+      <c r="P49" t="n">
         <v>1.016666666666667</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
+        <v>2.042361111111111</v>
+      </c>
+      <c r="R49" t="n">
         <v>271.7499999999998</v>
       </c>
     </row>
@@ -3453,9 +3751,15 @@
         <v>17</v>
       </c>
       <c r="O50" t="n">
+        <v>17.03819444444444</v>
+      </c>
+      <c r="P50" t="n">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
+        <v>2.038194444444445</v>
+      </c>
+      <c r="R50" t="n">
         <v>469.7499999999998</v>
       </c>
     </row>
@@ -3513,9 +3817,15 @@
         <v>16</v>
       </c>
       <c r="O51" t="n">
+        <v>16.8375</v>
+      </c>
+      <c r="P51" t="n">
         <v>20.1</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
+        <v>1.8375</v>
+      </c>
+      <c r="R51" t="n">
         <v>637.7499999999998</v>
       </c>
     </row>
@@ -3573,9 +3883,15 @@
         <v>16</v>
       </c>
       <c r="O52" t="n">
+        <v>16.72916666666666</v>
+      </c>
+      <c r="P52" t="n">
         <v>17.5</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
+        <v>1.729166666666667</v>
+      </c>
+      <c r="R52" t="n">
         <v>648.7499999999998</v>
       </c>
     </row>
@@ -3633,9 +3949,15 @@
         <v>16</v>
       </c>
       <c r="O53" t="n">
+        <v>16.72152777777778</v>
+      </c>
+      <c r="P53" t="n">
         <v>17.31666666666667</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
+        <v>1.721527777777778</v>
+      </c>
+      <c r="R53" t="n">
         <v>666.7499999999998</v>
       </c>
     </row>
@@ -3693,9 +4015,15 @@
         <v>16</v>
       </c>
       <c r="O54" t="n">
+        <v>16.71180555555555</v>
+      </c>
+      <c r="P54" t="n">
         <v>17.08333333333333</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
+        <v>1.711805555555556</v>
+      </c>
+      <c r="R54" t="n">
         <v>673.7499999999998</v>
       </c>
     </row>
@@ -3753,9 +4081,15 @@
         <v>16</v>
       </c>
       <c r="O55" t="n">
+        <v>16.49375</v>
+      </c>
+      <c r="P55" t="n">
         <v>11.85</v>
       </c>
-      <c r="P55" t="n">
+      <c r="Q55" t="n">
+        <v>1.49375</v>
+      </c>
+      <c r="R55" t="n">
         <v>700.7499999999998</v>
       </c>
     </row>
@@ -3813,9 +4147,15 @@
         <v>16</v>
       </c>
       <c r="O56" t="n">
+        <v>16.375</v>
+      </c>
+      <c r="P56" t="n">
         <v>9</v>
       </c>
-      <c r="P56" t="n">
+      <c r="Q56" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="R56" t="n">
         <v>714.8499999999999</v>
       </c>
     </row>
@@ -3873,9 +4213,15 @@
         <v>15</v>
       </c>
       <c r="O57" t="n">
+        <v>15.98680555555556</v>
+      </c>
+      <c r="P57" t="n">
         <v>23.68333333333333</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="R57" t="n">
         <v>726.3499999999999</v>
       </c>
     </row>
@@ -3933,9 +4279,15 @@
         <v>15</v>
       </c>
       <c r="O58" t="n">
+        <v>15.79722222222222</v>
+      </c>
+      <c r="P58" t="n">
         <v>19.13333333333333</v>
       </c>
-      <c r="P58" t="n">
+      <c r="Q58" t="n">
+        <v>0.7972222222222222</v>
+      </c>
+      <c r="R58" t="n">
         <v>784.0699999999998</v>
       </c>
     </row>
@@ -3993,9 +4345,15 @@
         <v>15</v>
       </c>
       <c r="O59" t="n">
+        <v>15.75555555555556</v>
+      </c>
+      <c r="P59" t="n">
         <v>18.13333333333333</v>
       </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="R59" t="n">
         <v>795.0699999999998</v>
       </c>
     </row>
@@ -4053,9 +4411,15 @@
         <v>15</v>
       </c>
       <c r="O60" t="n">
+        <v>15.75486111111111</v>
+      </c>
+      <c r="P60" t="n">
         <v>18.11666666666667</v>
       </c>
-      <c r="P60" t="n">
+      <c r="Q60" t="n">
+        <v>0.7548611111111111</v>
+      </c>
+      <c r="R60" t="n">
         <v>823.0699999999998</v>
       </c>
     </row>
@@ -4113,9 +4477,15 @@
         <v>15</v>
       </c>
       <c r="O61" t="n">
+        <v>15.4625</v>
+      </c>
+      <c r="P61" t="n">
         <v>11.1</v>
       </c>
-      <c r="P61" t="n">
+      <c r="Q61" t="n">
+        <v>0.4625</v>
+      </c>
+      <c r="R61" t="n">
         <v>839.0699999999998</v>
       </c>
     </row>
@@ -4173,9 +4543,15 @@
         <v>15</v>
       </c>
       <c r="O62" t="n">
+        <v>15.42430555555556</v>
+      </c>
+      <c r="P62" t="n">
         <v>10.18333333333333</v>
       </c>
-      <c r="P62" t="n">
+      <c r="Q62" t="n">
+        <v>0.4243055555555555</v>
+      </c>
+      <c r="R62" t="n">
         <v>854.0699999999998</v>
       </c>
     </row>
@@ -4233,9 +4609,15 @@
         <v>15</v>
       </c>
       <c r="O63" t="n">
+        <v>15.025</v>
+      </c>
+      <c r="P63" t="n">
         <v>0.6</v>
       </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="R63" t="n">
         <v>893.0699999999998</v>
       </c>
     </row>
@@ -4293,9 +4675,15 @@
         <v>14</v>
       </c>
       <c r="O64" t="n">
+        <v>14.92013888888889</v>
+      </c>
+      <c r="P64" t="n">
         <v>22.08333333333333</v>
       </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
+        <v>6.920138888888889</v>
+      </c>
+      <c r="R64" t="n">
         <v>908.0699999999998</v>
       </c>
     </row>
@@ -4353,9 +4741,15 @@
         <v>14</v>
       </c>
       <c r="O65" t="n">
+        <v>14.87013888888889</v>
+      </c>
+      <c r="P65" t="n">
         <v>20.88333333333333</v>
       </c>
-      <c r="P65" t="n">
+      <c r="Q65" t="n">
+        <v>6.870138888888889</v>
+      </c>
+      <c r="R65" t="n">
         <v>944.7699999999999</v>
       </c>
     </row>
@@ -4413,9 +4807,15 @@
         <v>14</v>
       </c>
       <c r="O66" t="n">
+        <v>14.85486111111111</v>
+      </c>
+      <c r="P66" t="n">
         <v>20.51666666666667</v>
       </c>
-      <c r="P66" t="n">
+      <c r="Q66" t="n">
+        <v>6.854861111111111</v>
+      </c>
+      <c r="R66" t="n">
         <v>948.7699999999999</v>
       </c>
     </row>
@@ -4473,9 +4873,15 @@
         <v>14</v>
       </c>
       <c r="O67" t="n">
+        <v>14.79375</v>
+      </c>
+      <c r="P67" t="n">
         <v>19.05</v>
       </c>
-      <c r="P67" t="n">
+      <c r="Q67" t="n">
+        <v>6.79375</v>
+      </c>
+      <c r="R67" t="n">
         <v>958.4999999999999</v>
       </c>
     </row>
@@ -4533,9 +4939,15 @@
         <v>14</v>
       </c>
       <c r="O68" t="n">
+        <v>14.73819444444445</v>
+      </c>
+      <c r="P68" t="n">
         <v>17.71666666666667</v>
       </c>
-      <c r="P68" t="n">
+      <c r="Q68" t="n">
+        <v>6.738194444444444</v>
+      </c>
+      <c r="R68" t="n">
         <v>1166.5</v>
       </c>
     </row>
@@ -4593,9 +5005,15 @@
         <v>14</v>
       </c>
       <c r="O69" t="n">
+        <v>14.47916666666667</v>
+      </c>
+      <c r="P69" t="n">
         <v>11.5</v>
       </c>
-      <c r="P69" t="n">
+      <c r="Q69" t="n">
+        <v>6.479166666666666</v>
+      </c>
+      <c r="R69" t="n">
         <v>1178</v>
       </c>
     </row>
@@ -4653,9 +5071,15 @@
         <v>14</v>
       </c>
       <c r="O70" t="n">
+        <v>14.46458333333333</v>
+      </c>
+      <c r="P70" t="n">
         <v>11.15</v>
       </c>
-      <c r="P70" t="n">
+      <c r="Q70" t="n">
+        <v>6.464583333333333</v>
+      </c>
+      <c r="R70" t="n">
         <v>1194.87</v>
       </c>
     </row>
@@ -4713,9 +5137,15 @@
         <v>13</v>
       </c>
       <c r="O71" t="n">
+        <v>13.97291666666667</v>
+      </c>
+      <c r="P71" t="n">
         <v>23.35</v>
       </c>
-      <c r="P71" t="n">
+      <c r="Q71" t="n">
+        <v>5.972916666666666</v>
+      </c>
+      <c r="R71" t="n">
         <v>1198.87</v>
       </c>
     </row>
@@ -4773,9 +5203,15 @@
         <v>13</v>
       </c>
       <c r="O72" t="n">
+        <v>13.89791666666667</v>
+      </c>
+      <c r="P72" t="n">
         <v>21.55</v>
       </c>
-      <c r="P72" t="n">
+      <c r="Q72" t="n">
+        <v>5.897916666666666</v>
+      </c>
+      <c r="R72" t="n">
         <v>1204.87</v>
       </c>
     </row>
@@ -4833,9 +5269,15 @@
         <v>13</v>
       </c>
       <c r="O73" t="n">
+        <v>13.71736111111111</v>
+      </c>
+      <c r="P73" t="n">
         <v>17.21666666666667</v>
       </c>
-      <c r="P73" t="n">
+      <c r="Q73" t="n">
+        <v>5.717361111111111</v>
+      </c>
+      <c r="R73" t="n">
         <v>1243.33</v>
       </c>
     </row>
@@ -4893,9 +5335,15 @@
         <v>13</v>
       </c>
       <c r="O74" t="n">
+        <v>13.71527777777778</v>
+      </c>
+      <c r="P74" t="n">
         <v>17.16666666666667</v>
       </c>
-      <c r="P74" t="n">
+      <c r="Q74" t="n">
+        <v>5.715277777777778</v>
+      </c>
+      <c r="R74" t="n">
         <v>1259.23</v>
       </c>
     </row>
@@ -4953,9 +5401,15 @@
         <v>13</v>
       </c>
       <c r="O75" t="n">
+        <v>13.49375</v>
+      </c>
+      <c r="P75" t="n">
         <v>11.85</v>
       </c>
-      <c r="P75" t="n">
+      <c r="Q75" t="n">
+        <v>5.493749999999999</v>
+      </c>
+      <c r="R75" t="n">
         <v>1272.73</v>
       </c>
     </row>
@@ -5013,9 +5467,15 @@
         <v>13</v>
       </c>
       <c r="O76" t="n">
+        <v>13.38472222222222</v>
+      </c>
+      <c r="P76" t="n">
         <v>9.233333333333333</v>
       </c>
-      <c r="P76" t="n">
+      <c r="Q76" t="n">
+        <v>5.384722222222222</v>
+      </c>
+      <c r="R76" t="n">
         <v>1275.73</v>
       </c>
     </row>
@@ -5073,9 +5533,15 @@
         <v>12</v>
       </c>
       <c r="O77" t="n">
+        <v>12.64236111111111</v>
+      </c>
+      <c r="P77" t="n">
         <v>15.41666666666667</v>
       </c>
-      <c r="P77" t="n">
+      <c r="Q77" t="n">
+        <v>4.642361111111111</v>
+      </c>
+      <c r="R77" t="n">
         <v>1291.93</v>
       </c>
     </row>
@@ -5133,9 +5599,15 @@
         <v>12</v>
       </c>
       <c r="O78" t="n">
+        <v>12.49513888888889</v>
+      </c>
+      <c r="P78" t="n">
         <v>11.88333333333333</v>
       </c>
-      <c r="P78" t="n">
+      <c r="Q78" t="n">
+        <v>4.495138888888889</v>
+      </c>
+      <c r="R78" t="n">
         <v>1358.13</v>
       </c>
     </row>
@@ -5193,9 +5665,15 @@
         <v>11</v>
       </c>
       <c r="O79" t="n">
+        <v>11.72291666666667</v>
+      </c>
+      <c r="P79" t="n">
         <v>17.35</v>
       </c>
-      <c r="P79" t="n">
+      <c r="Q79" t="n">
+        <v>3.722916666666667</v>
+      </c>
+      <c r="R79" t="n">
         <v>1390.31</v>
       </c>
     </row>
@@ -5253,9 +5731,15 @@
         <v>11</v>
       </c>
       <c r="O80" t="n">
+        <v>11.47986111111111</v>
+      </c>
+      <c r="P80" t="n">
         <v>11.51666666666667</v>
       </c>
-      <c r="P80" t="n">
+      <c r="Q80" t="n">
+        <v>3.479861111111111</v>
+      </c>
+      <c r="R80" t="n">
         <v>1404.31</v>
       </c>
     </row>
@@ -5313,9 +5797,15 @@
         <v>11</v>
       </c>
       <c r="O81" t="n">
+        <v>11.46875</v>
+      </c>
+      <c r="P81" t="n">
         <v>11.25</v>
       </c>
-      <c r="P81" t="n">
+      <c r="Q81" t="n">
+        <v>3.46875</v>
+      </c>
+      <c r="R81" t="n">
         <v>1418.33</v>
       </c>
     </row>
@@ -5373,9 +5863,15 @@
         <v>11</v>
       </c>
       <c r="O82" t="n">
+        <v>11.34722222222222</v>
+      </c>
+      <c r="P82" t="n">
         <v>8.333333333333334</v>
       </c>
-      <c r="P82" t="n">
+      <c r="Q82" t="n">
+        <v>3.347222222222222</v>
+      </c>
+      <c r="R82" t="n">
         <v>1433.33</v>
       </c>
     </row>
@@ -5433,9 +5929,15 @@
         <v>11</v>
       </c>
       <c r="O83" t="n">
+        <v>11.33958333333333</v>
+      </c>
+      <c r="P83" t="n">
         <v>8.15</v>
       </c>
-      <c r="P83" t="n">
+      <c r="Q83" t="n">
+        <v>3.339583333333334</v>
+      </c>
+      <c r="R83" t="n">
         <v>1437.13</v>
       </c>
     </row>
@@ -5493,9 +5995,15 @@
         <v>10</v>
       </c>
       <c r="O84" t="n">
+        <v>10.71944444444444</v>
+      </c>
+      <c r="P84" t="n">
         <v>17.26666666666667</v>
       </c>
-      <c r="P84" t="n">
+      <c r="Q84" t="n">
+        <v>2.719444444444445</v>
+      </c>
+      <c r="R84" t="n">
         <v>1441.13</v>
       </c>
     </row>
@@ -5553,9 +6061,15 @@
         <v>10</v>
       </c>
       <c r="O85" t="n">
+        <v>10.71944444444444</v>
+      </c>
+      <c r="P85" t="n">
         <v>17.26666666666667</v>
       </c>
-      <c r="P85" t="n">
+      <c r="Q85" t="n">
+        <v>2.719444444444445</v>
+      </c>
+      <c r="R85" t="n">
         <v>1461.93</v>
       </c>
     </row>
@@ -5613,9 +6127,15 @@
         <v>10</v>
       </c>
       <c r="O86" t="n">
+        <v>10.33541666666667</v>
+      </c>
+      <c r="P86" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="P86" t="n">
+      <c r="Q86" t="n">
+        <v>2.335416666666667</v>
+      </c>
+      <c r="R86" t="n">
         <v>1473.93</v>
       </c>
     </row>
@@ -5673,9 +6193,15 @@
         <v>9</v>
       </c>
       <c r="O87" t="n">
+        <v>9.936805555555555</v>
+      </c>
+      <c r="P87" t="n">
         <v>22.48333333333333</v>
       </c>
-      <c r="P87" t="n">
+      <c r="Q87" t="n">
+        <v>1.936805555555555</v>
+      </c>
+      <c r="R87" t="n">
         <v>1482.73</v>
       </c>
     </row>
@@ -5733,9 +6259,15 @@
         <v>9</v>
       </c>
       <c r="O88" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="P88" t="n">
         <v>20.25</v>
       </c>
-      <c r="P88" t="n">
+      <c r="Q88" t="n">
+        <v>1.84375</v>
+      </c>
+      <c r="R88" t="n">
         <v>1512.73</v>
       </c>
     </row>
@@ -5793,9 +6325,15 @@
         <v>9</v>
       </c>
       <c r="O89" t="n">
+        <v>9.822222222222221</v>
+      </c>
+      <c r="P89" t="n">
         <v>19.73333333333333</v>
       </c>
-      <c r="P89" t="n">
+      <c r="Q89" t="n">
+        <v>1.822222222222222</v>
+      </c>
+      <c r="R89" t="n">
         <v>1540.23</v>
       </c>
     </row>
@@ -5853,9 +6391,15 @@
         <v>9</v>
       </c>
       <c r="O90" t="n">
+        <v>9.803472222222222</v>
+      </c>
+      <c r="P90" t="n">
         <v>19.28333333333333</v>
       </c>
-      <c r="P90" t="n">
+      <c r="Q90" t="n">
+        <v>1.803472222222222</v>
+      </c>
+      <c r="R90" t="n">
         <v>1552.23</v>
       </c>
     </row>
@@ -5913,9 +6457,15 @@
         <v>9</v>
       </c>
       <c r="O91" t="n">
+        <v>9.668055555555554</v>
+      </c>
+      <c r="P91" t="n">
         <v>16.03333333333333</v>
       </c>
-      <c r="P91" t="n">
+      <c r="Q91" t="n">
+        <v>1.668055555555555</v>
+      </c>
+      <c r="R91" t="n">
         <v>552.2299999999998</v>
       </c>
     </row>
@@ -5973,9 +6523,15 @@
         <v>9</v>
       </c>
       <c r="O92" t="n">
+        <v>9.577777777777778</v>
+      </c>
+      <c r="P92" t="n">
         <v>13.86666666666667</v>
       </c>
-      <c r="P92" t="n">
+      <c r="Q92" t="n">
+        <v>1.577777777777778</v>
+      </c>
+      <c r="R92" t="n">
         <v>569.8299999999998</v>
       </c>
     </row>
@@ -6033,9 +6589,15 @@
         <v>9</v>
       </c>
       <c r="O93" t="n">
+        <v>9.485416666666667</v>
+      </c>
+      <c r="P93" t="n">
         <v>11.65</v>
       </c>
-      <c r="P93" t="n">
+      <c r="Q93" t="n">
+        <v>1.485416666666667</v>
+      </c>
+      <c r="R93" t="n">
         <v>578.3299999999998</v>
       </c>
     </row>
@@ -6093,9 +6655,15 @@
         <v>9</v>
       </c>
       <c r="O94" t="n">
+        <v>9.484027777777778</v>
+      </c>
+      <c r="P94" t="n">
         <v>11.61666666666667</v>
       </c>
-      <c r="P94" t="n">
+      <c r="Q94" t="n">
+        <v>1.484027777777778</v>
+      </c>
+      <c r="R94" t="n">
         <v>580.1699999999998</v>
       </c>
     </row>
@@ -6153,9 +6721,15 @@
         <v>9</v>
       </c>
       <c r="O95" t="n">
+        <v>9.466666666666667</v>
+      </c>
+      <c r="P95" t="n">
         <v>11.2</v>
       </c>
-      <c r="P95" t="n">
+      <c r="Q95" t="n">
+        <v>1.466666666666667</v>
+      </c>
+      <c r="R95" t="n">
         <v>585.5699999999997</v>
       </c>
     </row>
@@ -6213,9 +6787,15 @@
         <v>9</v>
       </c>
       <c r="O96" t="n">
+        <v>9.327083333333333</v>
+      </c>
+      <c r="P96" t="n">
         <v>7.85</v>
       </c>
-      <c r="P96" t="n">
+      <c r="Q96" t="n">
+        <v>1.327083333333333</v>
+      </c>
+      <c r="R96" t="n">
         <v>593.5699999999997</v>
       </c>
     </row>
@@ -6273,9 +6853,15 @@
         <v>8</v>
       </c>
       <c r="O97" t="n">
+        <v>8.824305555555554</v>
+      </c>
+      <c r="P97" t="n">
         <v>19.78333333333333</v>
       </c>
-      <c r="P97" t="n">
+      <c r="Q97" t="n">
+        <v>0.8243055555555555</v>
+      </c>
+      <c r="R97" t="n">
         <v>597.5699999999997</v>
       </c>
     </row>
@@ -6333,9 +6919,15 @@
         <v>8</v>
       </c>
       <c r="O98" t="n">
+        <v>8.740972222222222</v>
+      </c>
+      <c r="P98" t="n">
         <v>17.78333333333333</v>
       </c>
-      <c r="P98" t="n">
+      <c r="Q98" t="n">
+        <v>0.7409722222222223</v>
+      </c>
+      <c r="R98" t="n">
         <v>628.5499999999997</v>
       </c>
     </row>
@@ -6393,9 +6985,15 @@
         <v>8</v>
       </c>
       <c r="O99" t="n">
+        <v>8.490972222222222</v>
+      </c>
+      <c r="P99" t="n">
         <v>11.78333333333333</v>
       </c>
-      <c r="P99" t="n">
+      <c r="Q99" t="n">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="R99" t="n">
         <v>641.8499999999998</v>
       </c>
     </row>
@@ -6453,9 +7051,15 @@
         <v>7</v>
       </c>
       <c r="O100" t="n">
+        <v>7.999305555555555</v>
+      </c>
+      <c r="P100" t="n">
         <v>23.98333333333333</v>
       </c>
-      <c r="P100" t="n">
+      <c r="Q100" t="n">
+        <v>6.999305555555555</v>
+      </c>
+      <c r="R100" t="n">
         <v>654.1499999999999</v>
       </c>
     </row>
@@ -6513,9 +7117,15 @@
         <v>7</v>
       </c>
       <c r="O101" t="n">
+        <v>7.923611111111112</v>
+      </c>
+      <c r="P101" t="n">
         <v>22.16666666666667</v>
       </c>
-      <c r="P101" t="n">
+      <c r="Q101" t="n">
+        <v>6.923611111111112</v>
+      </c>
+      <c r="R101" t="n">
         <v>686.1499999999999</v>
       </c>
     </row>
@@ -6573,9 +7183,15 @@
         <v>7</v>
       </c>
       <c r="O102" t="n">
+        <v>7.894444444444445</v>
+      </c>
+      <c r="P102" t="n">
         <v>21.46666666666667</v>
       </c>
-      <c r="P102" t="n">
+      <c r="Q102" t="n">
+        <v>6.894444444444445</v>
+      </c>
+      <c r="R102" t="n">
         <v>699.1499999999999</v>
       </c>
     </row>
@@ -6633,9 +7249,15 @@
         <v>7</v>
       </c>
       <c r="O103" t="n">
+        <v>7.877083333333333</v>
+      </c>
+      <c r="P103" t="n">
         <v>21.05</v>
       </c>
-      <c r="P103" t="n">
+      <c r="Q103" t="n">
+        <v>6.877083333333333</v>
+      </c>
+      <c r="R103" t="n">
         <v>703.1499999999999</v>
       </c>
     </row>
@@ -6693,9 +7315,15 @@
         <v>7</v>
       </c>
       <c r="O104" t="n">
+        <v>7.861111111111111</v>
+      </c>
+      <c r="P104" t="n">
         <v>20.66666666666667</v>
       </c>
-      <c r="P104" t="n">
+      <c r="Q104" t="n">
+        <v>6.861111111111111</v>
+      </c>
+      <c r="R104" t="n">
         <v>706.1499999999999</v>
       </c>
     </row>
@@ -6753,9 +7381,15 @@
         <v>7</v>
       </c>
       <c r="O105" t="n">
+        <v>7.763888888888889</v>
+      </c>
+      <c r="P105" t="n">
         <v>18.33333333333333</v>
       </c>
-      <c r="P105" t="n">
+      <c r="Q105" t="n">
+        <v>6.763888888888889</v>
+      </c>
+      <c r="R105" t="n">
         <v>714.3699999999999</v>
       </c>
     </row>
@@ -6813,9 +7447,15 @@
         <v>7</v>
       </c>
       <c r="O106" t="n">
+        <v>7.763194444444444</v>
+      </c>
+      <c r="P106" t="n">
         <v>18.31666666666667</v>
       </c>
-      <c r="P106" t="n">
+      <c r="Q106" t="n">
+        <v>6.763194444444444</v>
+      </c>
+      <c r="R106" t="n">
         <v>715.8699999999999</v>
       </c>
     </row>
@@ -6873,9 +7513,15 @@
         <v>7</v>
       </c>
       <c r="O107" t="n">
+        <v>7.721527777777777</v>
+      </c>
+      <c r="P107" t="n">
         <v>17.31666666666667</v>
       </c>
-      <c r="P107" t="n">
+      <c r="Q107" t="n">
+        <v>6.721527777777777</v>
+      </c>
+      <c r="R107" t="n">
         <v>730.6699999999998</v>
       </c>
     </row>
@@ -6933,9 +7579,15 @@
         <v>7</v>
       </c>
       <c r="O108" t="n">
+        <v>7.554166666666667</v>
+      </c>
+      <c r="P108" t="n">
         <v>13.3</v>
       </c>
-      <c r="P108" t="n">
+      <c r="Q108" t="n">
+        <v>6.554166666666667</v>
+      </c>
+      <c r="R108" t="n">
         <v>752.4499999999998</v>
       </c>
     </row>
@@ -6993,9 +7645,15 @@
         <v>7</v>
       </c>
       <c r="O109" t="n">
+        <v>7.539583333333334</v>
+      </c>
+      <c r="P109" t="n">
         <v>12.95</v>
       </c>
-      <c r="P109" t="n">
+      <c r="Q109" t="n">
+        <v>6.539583333333334</v>
+      </c>
+      <c r="R109" t="n">
         <v>757.9499999999998</v>
       </c>
     </row>
@@ -7053,9 +7711,15 @@
         <v>7</v>
       </c>
       <c r="O110" t="n">
+        <v>7.511805555555555</v>
+      </c>
+      <c r="P110" t="n">
         <v>12.28333333333333</v>
       </c>
-      <c r="P110" t="n">
+      <c r="Q110" t="n">
+        <v>6.511805555555555</v>
+      </c>
+      <c r="R110" t="n">
         <v>813.9499999999998</v>
       </c>
     </row>
@@ -7113,9 +7777,15 @@
         <v>7</v>
       </c>
       <c r="O111" t="n">
+        <v>7.511111111111111</v>
+      </c>
+      <c r="P111" t="n">
         <v>12.26666666666667</v>
       </c>
-      <c r="P111" t="n">
+      <c r="Q111" t="n">
+        <v>6.511111111111111</v>
+      </c>
+      <c r="R111" t="n">
         <v>821.4899999999998</v>
       </c>
     </row>
@@ -7173,9 +7843,15 @@
         <v>7</v>
       </c>
       <c r="O112" t="n">
+        <v>7.510416666666667</v>
+      </c>
+      <c r="P112" t="n">
         <v>12.25</v>
       </c>
-      <c r="P112" t="n">
+      <c r="Q112" t="n">
+        <v>6.510416666666667</v>
+      </c>
+      <c r="R112" t="n">
         <v>825.3899999999998</v>
       </c>
     </row>
@@ -7233,9 +7909,15 @@
         <v>7</v>
       </c>
       <c r="O113" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P113" t="n">
         <v>12</v>
       </c>
-      <c r="P113" t="n">
+      <c r="Q113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R113" t="n">
         <v>829.3899999999998</v>
       </c>
     </row>
@@ -7293,9 +7975,15 @@
         <v>6</v>
       </c>
       <c r="O114" t="n">
+        <v>6.993055555555555</v>
+      </c>
+      <c r="P114" t="n">
         <v>23.83333333333333</v>
       </c>
-      <c r="P114" t="n">
+      <c r="Q114" t="n">
+        <v>5.993055555555555</v>
+      </c>
+      <c r="R114" t="n">
         <v>836.8899999999998</v>
       </c>
     </row>
@@ -7353,9 +8041,15 @@
         <v>6</v>
       </c>
       <c r="O115" t="n">
+        <v>6.784027777777778</v>
+      </c>
+      <c r="P115" t="n">
         <v>18.81666666666667</v>
       </c>
-      <c r="P115" t="n">
+      <c r="Q115" t="n">
+        <v>5.784027777777778</v>
+      </c>
+      <c r="R115" t="n">
         <v>271.8899999999998</v>
       </c>
     </row>
@@ -7413,9 +8107,15 @@
         <v>6</v>
       </c>
       <c r="O116" t="n">
+        <v>6.783333333333333</v>
+      </c>
+      <c r="P116" t="n">
         <v>18.8</v>
       </c>
-      <c r="P116" t="n">
+      <c r="Q116" t="n">
+        <v>5.783333333333333</v>
+      </c>
+      <c r="R116" t="n">
         <v>283.8899999999998</v>
       </c>
     </row>
@@ -7473,9 +8173,15 @@
         <v>6</v>
       </c>
       <c r="O117" t="n">
+        <v>6.652083333333334</v>
+      </c>
+      <c r="P117" t="n">
         <v>15.65</v>
       </c>
-      <c r="P117" t="n">
+      <c r="Q117" t="n">
+        <v>5.652083333333334</v>
+      </c>
+      <c r="R117" t="n">
         <v>294.9899999999998</v>
       </c>
     </row>
@@ -7533,9 +8239,15 @@
         <v>6</v>
       </c>
       <c r="O118" t="n">
+        <v>6.332638888888889</v>
+      </c>
+      <c r="P118" t="n">
         <v>7.983333333333333</v>
       </c>
-      <c r="P118" t="n">
+      <c r="Q118" t="n">
+        <v>5.332638888888889</v>
+      </c>
+      <c r="R118" t="n">
         <v>333.9899999999998</v>
       </c>
     </row>
@@ -7593,9 +8305,15 @@
         <v>6</v>
       </c>
       <c r="O119" t="n">
+        <v>6.115972222222222</v>
+      </c>
+      <c r="P119" t="n">
         <v>2.783333333333333</v>
       </c>
-      <c r="P119" t="n">
+      <c r="Q119" t="n">
+        <v>5.115972222222222</v>
+      </c>
+      <c r="R119" t="n">
         <v>336.3899999999998</v>
       </c>
     </row>
@@ -7653,9 +8371,15 @@
         <v>5</v>
       </c>
       <c r="O120" t="n">
+        <v>5.999305555555555</v>
+      </c>
+      <c r="P120" t="n">
         <v>23.98333333333333</v>
       </c>
-      <c r="P120" t="n">
+      <c r="Q120" t="n">
+        <v>4.999305555555555</v>
+      </c>
+      <c r="R120" t="n">
         <v>366.3899999999998</v>
       </c>
     </row>
@@ -7713,9 +8437,15 @@
         <v>5</v>
       </c>
       <c r="O121" t="n">
+        <v>5.863888888888889</v>
+      </c>
+      <c r="P121" t="n">
         <v>20.73333333333333</v>
       </c>
-      <c r="P121" t="n">
+      <c r="Q121" t="n">
+        <v>4.863888888888889</v>
+      </c>
+      <c r="R121" t="n">
         <v>372.3899999999998</v>
       </c>
     </row>
@@ -7773,9 +8503,15 @@
         <v>5</v>
       </c>
       <c r="O122" t="n">
+        <v>5.722222222222222</v>
+      </c>
+      <c r="P122" t="n">
         <v>17.33333333333333</v>
       </c>
-      <c r="P122" t="n">
+      <c r="Q122" t="n">
+        <v>4.722222222222222</v>
+      </c>
+      <c r="R122" t="n">
         <v>382.2699999999998</v>
       </c>
     </row>
@@ -7833,9 +8569,15 @@
         <v>5</v>
       </c>
       <c r="O123" t="n">
+        <v>5.481944444444444</v>
+      </c>
+      <c r="P123" t="n">
         <v>11.56666666666667</v>
       </c>
-      <c r="P123" t="n">
+      <c r="Q123" t="n">
+        <v>4.481944444444444</v>
+      </c>
+      <c r="R123" t="n">
         <v>405.2399999999998</v>
       </c>
     </row>
@@ -7893,9 +8635,15 @@
         <v>5</v>
       </c>
       <c r="O124" t="n">
+        <v>5.3125</v>
+      </c>
+      <c r="P124" t="n">
         <v>7.5</v>
       </c>
-      <c r="P124" t="n">
+      <c r="Q124" t="n">
+        <v>4.3125</v>
+      </c>
+      <c r="R124" t="n">
         <v>418.2399999999998</v>
       </c>
     </row>
@@ -7953,9 +8701,15 @@
         <v>4</v>
       </c>
       <c r="O125" t="n">
+        <v>4.930555555555556</v>
+      </c>
+      <c r="P125" t="n">
         <v>22.33333333333333</v>
       </c>
-      <c r="P125" t="n">
+      <c r="Q125" t="n">
+        <v>3.930555555555555</v>
+      </c>
+      <c r="R125" t="n">
         <v>423.2399999999998</v>
       </c>
     </row>
@@ -8013,9 +8767,15 @@
         <v>4</v>
       </c>
       <c r="O126" t="n">
+        <v>4.734722222222222</v>
+      </c>
+      <c r="P126" t="n">
         <v>17.63333333333333</v>
       </c>
-      <c r="P126" t="n">
+      <c r="Q126" t="n">
+        <v>3.734722222222222</v>
+      </c>
+      <c r="R126" t="n">
         <v>429.2399999999998</v>
       </c>
     </row>
@@ -8073,9 +8833,15 @@
         <v>4</v>
       </c>
       <c r="O127" t="n">
+        <v>4.732638888888888</v>
+      </c>
+      <c r="P127" t="n">
         <v>17.58333333333333</v>
       </c>
-      <c r="P127" t="n">
+      <c r="Q127" t="n">
+        <v>3.732638888888889</v>
+      </c>
+      <c r="R127" t="n">
         <v>445.3399999999997</v>
       </c>
     </row>
@@ -8133,9 +8899,15 @@
         <v>4</v>
       </c>
       <c r="O128" t="n">
+        <v>4.520833333333333</v>
+      </c>
+      <c r="P128" t="n">
         <v>12.5</v>
       </c>
-      <c r="P128" t="n">
+      <c r="Q128" t="n">
+        <v>3.520833333333333</v>
+      </c>
+      <c r="R128" t="n">
         <v>450.1399999999998</v>
       </c>
     </row>
@@ -8193,9 +8965,15 @@
         <v>4</v>
       </c>
       <c r="O129" t="n">
+        <v>4.479166666666666</v>
+      </c>
+      <c r="P129" t="n">
         <v>11.5</v>
       </c>
-      <c r="P129" t="n">
+      <c r="Q129" t="n">
+        <v>3.479166666666667</v>
+      </c>
+      <c r="R129" t="n">
         <v>459.7999999999997</v>
       </c>
     </row>
@@ -8253,9 +9031,15 @@
         <v>4</v>
       </c>
       <c r="O130" t="n">
+        <v>4.315972222222222</v>
+      </c>
+      <c r="P130" t="n">
         <v>7.583333333333333</v>
       </c>
-      <c r="P130" t="n">
+      <c r="Q130" t="n">
+        <v>3.315972222222222</v>
+      </c>
+      <c r="R130" t="n">
         <v>474.7999999999997</v>
       </c>
     </row>
@@ -8313,9 +9097,15 @@
         <v>3</v>
       </c>
       <c r="O131" t="n">
+        <v>3.857638888888889</v>
+      </c>
+      <c r="P131" t="n">
         <v>20.58333333333333</v>
       </c>
-      <c r="P131" t="n">
+      <c r="Q131" t="n">
+        <v>2.857638888888889</v>
+      </c>
+      <c r="R131" t="n">
         <v>478.7999999999997</v>
       </c>
     </row>
@@ -8373,9 +9163,15 @@
         <v>3</v>
       </c>
       <c r="O132" t="n">
+        <v>3.85625</v>
+      </c>
+      <c r="P132" t="n">
         <v>20.55</v>
       </c>
-      <c r="P132" t="n">
+      <c r="Q132" t="n">
+        <v>2.85625</v>
+      </c>
+      <c r="R132" t="n">
         <v>481.7999999999997</v>
       </c>
     </row>
@@ -8433,9 +9229,15 @@
         <v>3</v>
       </c>
       <c r="O133" t="n">
+        <v>3.772222222222222</v>
+      </c>
+      <c r="P133" t="n">
         <v>18.53333333333333</v>
       </c>
-      <c r="P133" t="n">
+      <c r="Q133" t="n">
+        <v>2.772222222222222</v>
+      </c>
+      <c r="R133" t="n">
         <v>486.7999999999997</v>
       </c>
     </row>
@@ -8493,9 +9295,15 @@
         <v>3</v>
       </c>
       <c r="O134" t="n">
+        <v>3.708333333333333</v>
+      </c>
+      <c r="P134" t="n">
         <v>17</v>
       </c>
-      <c r="P134" t="n">
+      <c r="Q134" t="n">
+        <v>2.708333333333333</v>
+      </c>
+      <c r="R134" t="n">
         <v>559.7999999999997</v>
       </c>
     </row>
@@ -8553,9 +9361,15 @@
         <v>3</v>
       </c>
       <c r="O135" t="n">
+        <v>3.704861111111111</v>
+      </c>
+      <c r="P135" t="n">
         <v>16.91666666666667</v>
       </c>
-      <c r="P135" t="n">
+      <c r="Q135" t="n">
+        <v>2.704861111111111</v>
+      </c>
+      <c r="R135" t="n">
         <v>562.7999999999997</v>
       </c>
     </row>
@@ -8613,9 +9427,15 @@
         <v>3</v>
       </c>
       <c r="O136" t="n">
+        <v>3.318055555555556</v>
+      </c>
+      <c r="P136" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="P136" t="n">
+      <c r="Q136" t="n">
+        <v>2.318055555555556</v>
+      </c>
+      <c r="R136" t="n">
         <v>564.2999999999997</v>
       </c>
     </row>
@@ -8673,9 +9493,15 @@
         <v>3</v>
       </c>
       <c r="O137" t="n">
+        <v>3.023611111111111</v>
+      </c>
+      <c r="P137" t="n">
         <v>0.5666666666666667</v>
       </c>
-      <c r="P137" t="n">
+      <c r="Q137" t="n">
+        <v>2.023611111111111</v>
+      </c>
+      <c r="R137" t="n">
         <v>568.2999999999997</v>
       </c>
     </row>
@@ -8733,9 +9559,15 @@
         <v>2</v>
       </c>
       <c r="O138" t="n">
+        <v>2.748611111111111</v>
+      </c>
+      <c r="P138" t="n">
         <v>17.96666666666667</v>
       </c>
-      <c r="P138" t="n">
+      <c r="Q138" t="n">
+        <v>1.748611111111111</v>
+      </c>
+      <c r="R138" t="n">
         <v>606.0999999999997</v>
       </c>
     </row>
@@ -8793,9 +9625,15 @@
         <v>2</v>
       </c>
       <c r="O139" t="n">
+        <v>2.746527777777778</v>
+      </c>
+      <c r="P139" t="n">
         <v>17.91666666666667</v>
       </c>
-      <c r="P139" t="n">
+      <c r="Q139" t="n">
+        <v>1.746527777777778</v>
+      </c>
+      <c r="R139" t="n">
         <v>645.8999999999997</v>
       </c>
     </row>
@@ -8853,9 +9691,15 @@
         <v>2</v>
       </c>
       <c r="O140" t="n">
+        <v>2.746527777777778</v>
+      </c>
+      <c r="P140" t="n">
         <v>17.91666666666667</v>
       </c>
-      <c r="P140" t="n">
+      <c r="Q140" t="n">
+        <v>1.746527777777778</v>
+      </c>
+      <c r="R140" t="n">
         <v>658.3999999999997</v>
       </c>
     </row>
@@ -8913,9 +9757,15 @@
         <v>2</v>
       </c>
       <c r="O141" t="n">
+        <v>2.471527777777778</v>
+      </c>
+      <c r="P141" t="n">
         <v>11.31666666666667</v>
       </c>
-      <c r="P141" t="n">
+      <c r="Q141" t="n">
+        <v>1.471527777777778</v>
+      </c>
+      <c r="R141" t="n">
         <v>686.0199999999998</v>
       </c>
     </row>
@@ -8973,9 +9823,15 @@
         <v>2</v>
       </c>
       <c r="O142" t="n">
+        <v>2.319444444444444</v>
+      </c>
+      <c r="P142" t="n">
         <v>7.666666666666667</v>
       </c>
-      <c r="P142" t="n">
+      <c r="Q142" t="n">
+        <v>1.319444444444444</v>
+      </c>
+      <c r="R142" t="n">
         <v>708.0199999999998</v>
       </c>
     </row>
@@ -9033,9 +9889,15 @@
         <v>2</v>
       </c>
       <c r="O143" t="n">
+        <v>2.089583333333334</v>
+      </c>
+      <c r="P143" t="n">
         <v>2.15</v>
       </c>
-      <c r="P143" t="n">
+      <c r="Q143" t="n">
+        <v>1.089583333333333</v>
+      </c>
+      <c r="R143" t="n">
         <v>713.0199999999998</v>
       </c>
     </row>
@@ -9093,9 +9955,15 @@
         <v>1</v>
       </c>
       <c r="O144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P144" t="n">
         <v>18</v>
       </c>
-      <c r="P144" t="n">
+      <c r="Q144" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R144" t="n">
         <v>721.9199999999997</v>
       </c>
     </row>
@@ -9153,9 +10021,15 @@
         <v>1</v>
       </c>
       <c r="O145" t="n">
+        <v>1.722222222222222</v>
+      </c>
+      <c r="P145" t="n">
         <v>17.33333333333333</v>
       </c>
-      <c r="P145" t="n">
+      <c r="Q145" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="R145" t="n">
         <v>761.3199999999997</v>
       </c>
     </row>
@@ -9213,9 +10087,15 @@
         <v>1</v>
       </c>
       <c r="O146" t="n">
+        <v>1.445138888888889</v>
+      </c>
+      <c r="P146" t="n">
         <v>10.68333333333333</v>
       </c>
-      <c r="P146" t="n">
+      <c r="Q146" t="n">
+        <v>0.4451388888888889</v>
+      </c>
+      <c r="R146" t="n">
         <v>788.5699999999997</v>
       </c>
     </row>
@@ -9273,9 +10153,15 @@
         <v>1</v>
       </c>
       <c r="O147" t="n">
+        <v>1.332638888888889</v>
+      </c>
+      <c r="P147" t="n">
         <v>7.983333333333333</v>
       </c>
-      <c r="P147" t="n">
+      <c r="Q147" t="n">
+        <v>0.3326388888888889</v>
+      </c>
+      <c r="R147" t="n">
         <v>815.4499999999997</v>
       </c>
     </row>
@@ -9333,9 +10219,15 @@
         <v>0</v>
       </c>
       <c r="O148" t="n">
+        <v>30.88541666666667</v>
+      </c>
+      <c r="P148" t="n">
         <v>21.25</v>
       </c>
-      <c r="P148" t="n">
+      <c r="Q148" t="n">
+        <v>6.885416666666667</v>
+      </c>
+      <c r="R148" t="n">
         <v>820.4499999999997</v>
       </c>
     </row>
@@ -9393,9 +10285,15 @@
         <v>0</v>
       </c>
       <c r="O149" t="n">
+        <v>30.86875</v>
+      </c>
+      <c r="P149" t="n">
         <v>20.85</v>
       </c>
-      <c r="P149" t="n">
+      <c r="Q149" t="n">
+        <v>6.868749999999999</v>
+      </c>
+      <c r="R149" t="n">
         <v>824.4499999999997</v>
       </c>
     </row>
@@ -9453,9 +10351,15 @@
         <v>0</v>
       </c>
       <c r="O150" t="n">
+        <v>30.86319444444444</v>
+      </c>
+      <c r="P150" t="n">
         <v>20.71666666666667</v>
       </c>
-      <c r="P150" t="n">
+      <c r="Q150" t="n">
+        <v>6.863194444444444</v>
+      </c>
+      <c r="R150" t="n">
         <v>835.1299999999997</v>
       </c>
     </row>
@@ -9513,9 +10417,15 @@
         <v>0</v>
       </c>
       <c r="O151" t="n">
+        <v>30.86180555555556</v>
+      </c>
+      <c r="P151" t="n">
         <v>20.68333333333333</v>
       </c>
-      <c r="P151" t="n">
+      <c r="Q151" t="n">
+        <v>6.861805555555555</v>
+      </c>
+      <c r="R151" t="n">
         <v>893.9299999999996</v>
       </c>
     </row>
@@ -9573,9 +10483,15 @@
         <v>0</v>
       </c>
       <c r="O152" t="n">
+        <v>30.85208333333333</v>
+      </c>
+      <c r="P152" t="n">
         <v>20.45</v>
       </c>
-      <c r="P152" t="n">
+      <c r="Q152" t="n">
+        <v>6.852083333333333</v>
+      </c>
+      <c r="R152" t="n">
         <v>918.9299999999996</v>
       </c>
     </row>
@@ -9633,9 +10549,15 @@
         <v>0</v>
       </c>
       <c r="O153" t="n">
+        <v>30.77430555555556</v>
+      </c>
+      <c r="P153" t="n">
         <v>18.58333333333333</v>
       </c>
-      <c r="P153" t="n">
+      <c r="Q153" t="n">
+        <v>6.774305555555555</v>
+      </c>
+      <c r="R153" t="n">
         <v>940.7299999999996</v>
       </c>
     </row>
@@ -9693,9 +10615,15 @@
         <v>0</v>
       </c>
       <c r="O154" t="n">
+        <v>30.75208333333333</v>
+      </c>
+      <c r="P154" t="n">
         <v>18.05</v>
       </c>
-      <c r="P154" t="n">
+      <c r="Q154" t="n">
+        <v>6.752083333333333</v>
+      </c>
+      <c r="R154" t="n">
         <v>952.2299999999996</v>
       </c>
     </row>
@@ -9753,9 +10681,15 @@
         <v>0</v>
       </c>
       <c r="O155" t="n">
+        <v>30.70347222222222</v>
+      </c>
+      <c r="P155" t="n">
         <v>16.88333333333333</v>
       </c>
-      <c r="P155" t="n">
+      <c r="Q155" t="n">
+        <v>6.703472222222222</v>
+      </c>
+      <c r="R155" t="n">
         <v>965.1299999999995</v>
       </c>
     </row>
@@ -9813,9 +10747,15 @@
         <v>0</v>
       </c>
       <c r="O156" t="n">
+        <v>30.66666666666667</v>
+      </c>
+      <c r="P156" t="n">
         <v>16</v>
       </c>
-      <c r="P156" t="n">
+      <c r="Q156" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R156" t="n">
         <v>975.1299999999995</v>
       </c>
     </row>
@@ -9873,9 +10813,15 @@
         <v>0</v>
       </c>
       <c r="O157" t="n">
+        <v>30.64513888888889</v>
+      </c>
+      <c r="P157" t="n">
         <v>15.48333333333333</v>
       </c>
-      <c r="P157" t="n">
+      <c r="Q157" t="n">
+        <v>6.645138888888889</v>
+      </c>
+      <c r="R157" t="n">
         <v>980.5999999999996</v>
       </c>
     </row>
@@ -9933,9 +10879,15 @@
         <v>0</v>
       </c>
       <c r="O158" t="n">
+        <v>30.47152777777778</v>
+      </c>
+      <c r="P158" t="n">
         <v>11.31666666666667</v>
       </c>
-      <c r="P158" t="n">
+      <c r="Q158" t="n">
+        <v>6.471527777777777</v>
+      </c>
+      <c r="R158" t="n">
         <v>984.5999999999996</v>
       </c>
     </row>

--- a/bill_ok_proc.xlsx
+++ b/bill_ok_proc.xlsx
@@ -583,10 +583,10 @@
         <v>25</v>
       </c>
       <c r="O2" t="n">
+        <v>17.08333333333333</v>
+      </c>
+      <c r="P2" t="n">
         <v>25.71180555555555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>17.08333333333333</v>
       </c>
       <c r="Q2" t="n">
         <v>3.711805555555556</v>
@@ -649,10 +649,10 @@
         <v>25</v>
       </c>
       <c r="O3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="P3" t="n">
         <v>25.6875</v>
-      </c>
-      <c r="P3" t="n">
-        <v>16.5</v>
       </c>
       <c r="Q3" t="n">
         <v>3.6875</v>
@@ -715,10 +715,10 @@
         <v>25</v>
       </c>
       <c r="O4" t="n">
+        <v>12.93333333333333</v>
+      </c>
+      <c r="P4" t="n">
         <v>25.53888888888889</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12.93333333333333</v>
       </c>
       <c r="Q4" t="n">
         <v>3.538888888888889</v>
@@ -781,10 +781,10 @@
         <v>25</v>
       </c>
       <c r="O5" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="P5" t="n">
         <v>25.49375</v>
-      </c>
-      <c r="P5" t="n">
-        <v>11.85</v>
       </c>
       <c r="Q5" t="n">
         <v>3.49375</v>
@@ -847,10 +847,10 @@
         <v>25</v>
       </c>
       <c r="O6" t="n">
+        <v>11.13333333333333</v>
+      </c>
+      <c r="P6" t="n">
         <v>25.46388888888889</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11.13333333333333</v>
       </c>
       <c r="Q6" t="n">
         <v>3.463888888888889</v>
@@ -913,10 +913,10 @@
         <v>25</v>
       </c>
       <c r="O7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P7" t="n">
         <v>25.02916666666667</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.7</v>
       </c>
       <c r="Q7" t="n">
         <v>3.029166666666667</v>
@@ -979,10 +979,10 @@
         <v>24</v>
       </c>
       <c r="O8" t="n">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="P8" t="n">
         <v>24.88888888888889</v>
-      </c>
-      <c r="P8" t="n">
-        <v>21.33333333333333</v>
       </c>
       <c r="Q8" t="n">
         <v>2.888888888888889</v>
@@ -1045,10 +1045,10 @@
         <v>24</v>
       </c>
       <c r="O9" t="n">
+        <v>17.46666666666667</v>
+      </c>
+      <c r="P9" t="n">
         <v>24.72777777777778</v>
-      </c>
-      <c r="P9" t="n">
-        <v>17.46666666666667</v>
       </c>
       <c r="Q9" t="n">
         <v>2.727777777777778</v>
@@ -1111,10 +1111,10 @@
         <v>24</v>
       </c>
       <c r="O10" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="P10" t="n">
         <v>24.4625</v>
-      </c>
-      <c r="P10" t="n">
-        <v>11.1</v>
       </c>
       <c r="Q10" t="n">
         <v>2.4625</v>
@@ -1177,10 +1177,10 @@
         <v>23</v>
       </c>
       <c r="O11" t="n">
+        <v>23</v>
+      </c>
+      <c r="P11" t="n">
         <v>23.95833333333333</v>
-      </c>
-      <c r="P11" t="n">
-        <v>23</v>
       </c>
       <c r="Q11" t="n">
         <v>1.958333333333333</v>
@@ -1243,10 +1243,10 @@
         <v>23</v>
       </c>
       <c r="O12" t="n">
+        <v>17.36666666666667</v>
+      </c>
+      <c r="P12" t="n">
         <v>23.72361111111111</v>
-      </c>
-      <c r="P12" t="n">
-        <v>17.36666666666667</v>
       </c>
       <c r="Q12" t="n">
         <v>1.723611111111111</v>
@@ -1309,10 +1309,10 @@
         <v>23</v>
       </c>
       <c r="O13" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="P13" t="n">
         <v>23.43958333333333</v>
-      </c>
-      <c r="P13" t="n">
-        <v>10.55</v>
       </c>
       <c r="Q13" t="n">
         <v>1.439583333333333</v>
@@ -1375,10 +1375,10 @@
         <v>23</v>
       </c>
       <c r="O14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P14" t="n">
         <v>23.03125</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.75</v>
       </c>
       <c r="Q14" t="n">
         <v>1.03125</v>
@@ -1441,10 +1441,10 @@
         <v>22</v>
       </c>
       <c r="O15" t="n">
+        <v>20.36666666666667</v>
+      </c>
+      <c r="P15" t="n">
         <v>22.84861111111111</v>
-      </c>
-      <c r="P15" t="n">
-        <v>20.36666666666667</v>
       </c>
       <c r="Q15" t="n">
         <v>0.8486111111111111</v>
@@ -1507,10 +1507,10 @@
         <v>22</v>
       </c>
       <c r="O16" t="n">
+        <v>20.21666666666667</v>
+      </c>
+      <c r="P16" t="n">
         <v>22.84236111111111</v>
-      </c>
-      <c r="P16" t="n">
-        <v>20.21666666666667</v>
       </c>
       <c r="Q16" t="n">
         <v>0.8423611111111111</v>
@@ -1573,10 +1573,10 @@
         <v>22</v>
       </c>
       <c r="O17" t="n">
+        <v>17.41666666666667</v>
+      </c>
+      <c r="P17" t="n">
         <v>22.72569444444444</v>
-      </c>
-      <c r="P17" t="n">
-        <v>17.41666666666667</v>
       </c>
       <c r="Q17" t="n">
         <v>0.7256944444444445</v>
@@ -1639,10 +1639,10 @@
         <v>22</v>
       </c>
       <c r="O18" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="P18" t="n">
         <v>22.45625</v>
-      </c>
-      <c r="P18" t="n">
-        <v>10.95</v>
       </c>
       <c r="Q18" t="n">
         <v>0.45625</v>
@@ -1705,10 +1705,10 @@
         <v>22</v>
       </c>
       <c r="O19" t="n">
+        <v>1.133333333333333</v>
+      </c>
+      <c r="P19" t="n">
         <v>22.04722222222222</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.133333333333333</v>
       </c>
       <c r="Q19" t="n">
         <v>0.04722222222222222</v>
@@ -1771,10 +1771,10 @@
         <v>21</v>
       </c>
       <c r="O20" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="P20" t="n">
         <v>21.98611111111111</v>
-      </c>
-      <c r="P20" t="n">
-        <v>23.66666666666667</v>
       </c>
       <c r="Q20" t="n">
         <v>6.986111111111111</v>
@@ -1837,10 +1837,10 @@
         <v>21</v>
       </c>
       <c r="O21" t="n">
+        <v>21.91666666666667</v>
+      </c>
+      <c r="P21" t="n">
         <v>21.91319444444444</v>
-      </c>
-      <c r="P21" t="n">
-        <v>21.91666666666667</v>
       </c>
       <c r="Q21" t="n">
         <v>6.913194444444445</v>
@@ -1903,10 +1903,10 @@
         <v>21</v>
       </c>
       <c r="O22" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="P22" t="n">
         <v>21.9</v>
-      </c>
-      <c r="P22" t="n">
-        <v>21.6</v>
       </c>
       <c r="Q22" t="n">
         <v>6.9</v>
@@ -1969,10 +1969,10 @@
         <v>21</v>
       </c>
       <c r="O23" t="n">
+        <v>17.53333333333333</v>
+      </c>
+      <c r="P23" t="n">
         <v>21.73055555555555</v>
-      </c>
-      <c r="P23" t="n">
-        <v>17.53333333333333</v>
       </c>
       <c r="Q23" t="n">
         <v>6.730555555555555</v>
@@ -2035,10 +2035,10 @@
         <v>21</v>
       </c>
       <c r="O24" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="P24" t="n">
         <v>21.59375</v>
-      </c>
-      <c r="P24" t="n">
-        <v>14.25</v>
       </c>
       <c r="Q24" t="n">
         <v>6.59375</v>
@@ -2101,10 +2101,10 @@
         <v>21</v>
       </c>
       <c r="O25" t="n">
+        <v>13.28333333333333</v>
+      </c>
+      <c r="P25" t="n">
         <v>21.55347222222222</v>
-      </c>
-      <c r="P25" t="n">
-        <v>13.28333333333333</v>
       </c>
       <c r="Q25" t="n">
         <v>6.553472222222222</v>
@@ -2167,10 +2167,10 @@
         <v>21</v>
       </c>
       <c r="O26" t="n">
+        <v>12.26666666666667</v>
+      </c>
+      <c r="P26" t="n">
         <v>21.51111111111111</v>
-      </c>
-      <c r="P26" t="n">
-        <v>12.26666666666667</v>
       </c>
       <c r="Q26" t="n">
         <v>6.511111111111111</v>
@@ -2233,10 +2233,10 @@
         <v>21</v>
       </c>
       <c r="O27" t="n">
+        <v>12.03333333333333</v>
+      </c>
+      <c r="P27" t="n">
         <v>21.50138888888889</v>
-      </c>
-      <c r="P27" t="n">
-        <v>12.03333333333333</v>
       </c>
       <c r="Q27" t="n">
         <v>6.501388888888889</v>
@@ -2299,10 +2299,10 @@
         <v>20</v>
       </c>
       <c r="O28" t="n">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="P28" t="n">
         <v>20.99305555555555</v>
-      </c>
-      <c r="P28" t="n">
-        <v>23.83333333333333</v>
       </c>
       <c r="Q28" t="n">
         <v>5.993055555555555</v>
@@ -2365,10 +2365,10 @@
         <v>20</v>
       </c>
       <c r="O29" t="n">
+        <v>20.93333333333333</v>
+      </c>
+      <c r="P29" t="n">
         <v>20.87222222222222</v>
-      </c>
-      <c r="P29" t="n">
-        <v>20.93333333333333</v>
       </c>
       <c r="Q29" t="n">
         <v>5.872222222222222</v>
@@ -2431,10 +2431,10 @@
         <v>20</v>
       </c>
       <c r="O30" t="n">
+        <v>17.88333333333333</v>
+      </c>
+      <c r="P30" t="n">
         <v>20.74513888888889</v>
-      </c>
-      <c r="P30" t="n">
-        <v>17.88333333333333</v>
       </c>
       <c r="Q30" t="n">
         <v>5.745138888888889</v>
@@ -2497,10 +2497,10 @@
         <v>20</v>
       </c>
       <c r="O31" t="n">
+        <v>12.41666666666667</v>
+      </c>
+      <c r="P31" t="n">
         <v>20.51736111111111</v>
-      </c>
-      <c r="P31" t="n">
-        <v>12.41666666666667</v>
       </c>
       <c r="Q31" t="n">
         <v>5.517361111111111</v>
@@ -2563,10 +2563,10 @@
         <v>20</v>
       </c>
       <c r="O32" t="n">
+        <v>12.21666666666667</v>
+      </c>
+      <c r="P32" t="n">
         <v>20.50902777777778</v>
-      </c>
-      <c r="P32" t="n">
-        <v>12.21666666666667</v>
       </c>
       <c r="Q32" t="n">
         <v>5.509027777777778</v>
@@ -2629,10 +2629,10 @@
         <v>20</v>
       </c>
       <c r="O33" t="n">
+        <v>11.38333333333333</v>
+      </c>
+      <c r="P33" t="n">
         <v>20.47430555555555</v>
-      </c>
-      <c r="P33" t="n">
-        <v>11.38333333333333</v>
       </c>
       <c r="Q33" t="n">
         <v>5.474305555555556</v>
@@ -2695,10 +2695,10 @@
         <v>20</v>
       </c>
       <c r="O34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P34" t="n">
         <v>20.35416666666666</v>
-      </c>
-      <c r="P34" t="n">
-        <v>8.5</v>
       </c>
       <c r="Q34" t="n">
         <v>5.354166666666666</v>
@@ -2761,10 +2761,10 @@
         <v>20</v>
       </c>
       <c r="O35" t="n">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="P35" t="n">
         <v>20.31597222222222</v>
-      </c>
-      <c r="P35" t="n">
-        <v>7.583333333333333</v>
       </c>
       <c r="Q35" t="n">
         <v>5.315972222222222</v>
@@ -2827,10 +2827,10 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="P36" t="n">
         <v>19.99791666666667</v>
-      </c>
-      <c r="P36" t="n">
-        <v>23.95</v>
       </c>
       <c r="Q36" t="n">
         <v>4.997916666666667</v>
@@ -2893,10 +2893,10 @@
         <v>19</v>
       </c>
       <c r="O37" t="n">
+        <v>22.01666666666667</v>
+      </c>
+      <c r="P37" t="n">
         <v>19.91736111111111</v>
-      </c>
-      <c r="P37" t="n">
-        <v>22.01666666666667</v>
       </c>
       <c r="Q37" t="n">
         <v>4.917361111111111</v>
@@ -2959,10 +2959,10 @@
         <v>19</v>
       </c>
       <c r="O38" t="n">
+        <v>17.43333333333333</v>
+      </c>
+      <c r="P38" t="n">
         <v>19.72638888888889</v>
-      </c>
-      <c r="P38" t="n">
-        <v>17.43333333333333</v>
       </c>
       <c r="Q38" t="n">
         <v>4.726388888888889</v>
@@ -3025,10 +3025,10 @@
         <v>19</v>
       </c>
       <c r="O39" t="n">
+        <v>14.46666666666667</v>
+      </c>
+      <c r="P39" t="n">
         <v>19.60277777777778</v>
-      </c>
-      <c r="P39" t="n">
-        <v>14.46666666666667</v>
       </c>
       <c r="Q39" t="n">
         <v>4.602777777777778</v>
@@ -3091,10 +3091,10 @@
         <v>19</v>
       </c>
       <c r="O40" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="P40" t="n">
         <v>19.475</v>
-      </c>
-      <c r="P40" t="n">
-        <v>11.4</v>
       </c>
       <c r="Q40" t="n">
         <v>4.475</v>
@@ -3157,10 +3157,10 @@
         <v>18</v>
       </c>
       <c r="O41" t="n">
+        <v>23.13333333333333</v>
+      </c>
+      <c r="P41" t="n">
         <v>18.96388888888889</v>
-      </c>
-      <c r="P41" t="n">
-        <v>23.13333333333333</v>
       </c>
       <c r="Q41" t="n">
         <v>3.963888888888889</v>
@@ -3223,10 +3223,10 @@
         <v>18</v>
       </c>
       <c r="O42" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="P42" t="n">
         <v>18.92083333333333</v>
-      </c>
-      <c r="P42" t="n">
-        <v>22.1</v>
       </c>
       <c r="Q42" t="n">
         <v>3.920833333333333</v>
@@ -3289,10 +3289,10 @@
         <v>18</v>
       </c>
       <c r="O43" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="P43" t="n">
         <v>18.5125</v>
-      </c>
-      <c r="P43" t="n">
-        <v>12.3</v>
       </c>
       <c r="Q43" t="n">
         <v>3.5125</v>
@@ -3355,10 +3355,10 @@
         <v>18</v>
       </c>
       <c r="O44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P44" t="n">
         <v>18.47916666666666</v>
-      </c>
-      <c r="P44" t="n">
-        <v>11.5</v>
       </c>
       <c r="Q44" t="n">
         <v>3.479166666666667</v>
@@ -3421,10 +3421,10 @@
         <v>18</v>
       </c>
       <c r="O45" t="n">
+        <v>10.33333333333333</v>
+      </c>
+      <c r="P45" t="n">
         <v>18.43055555555556</v>
-      </c>
-      <c r="P45" t="n">
-        <v>10.33333333333333</v>
       </c>
       <c r="Q45" t="n">
         <v>3.430555555555555</v>
@@ -3487,10 +3487,10 @@
         <v>17</v>
       </c>
       <c r="O46" t="n">
+        <v>17.36666666666667</v>
+      </c>
+      <c r="P46" t="n">
         <v>17.72361111111111</v>
-      </c>
-      <c r="P46" t="n">
-        <v>17.36666666666667</v>
       </c>
       <c r="Q46" t="n">
         <v>2.723611111111111</v>
@@ -3553,10 +3553,10 @@
         <v>17</v>
       </c>
       <c r="O47" t="n">
+        <v>15.71666666666667</v>
+      </c>
+      <c r="P47" t="n">
         <v>17.65486111111111</v>
-      </c>
-      <c r="P47" t="n">
-        <v>15.71666666666667</v>
       </c>
       <c r="Q47" t="n">
         <v>2.654861111111111</v>
@@ -3619,10 +3619,10 @@
         <v>17</v>
       </c>
       <c r="O48" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="P48" t="n">
         <v>17.49791666666667</v>
-      </c>
-      <c r="P48" t="n">
-        <v>11.95</v>
       </c>
       <c r="Q48" t="n">
         <v>2.497916666666667</v>
@@ -3685,10 +3685,10 @@
         <v>17</v>
       </c>
       <c r="O49" t="n">
+        <v>1.016666666666667</v>
+      </c>
+      <c r="P49" t="n">
         <v>17.04236111111111</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.016666666666667</v>
       </c>
       <c r="Q49" t="n">
         <v>2.042361111111111</v>
@@ -3751,10 +3751,10 @@
         <v>17</v>
       </c>
       <c r="O50" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P50" t="n">
         <v>17.03819444444444</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0.9166666666666666</v>
       </c>
       <c r="Q50" t="n">
         <v>2.038194444444445</v>
@@ -3817,10 +3817,10 @@
         <v>16</v>
       </c>
       <c r="O51" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="P51" t="n">
         <v>16.8375</v>
-      </c>
-      <c r="P51" t="n">
-        <v>20.1</v>
       </c>
       <c r="Q51" t="n">
         <v>1.8375</v>
@@ -3883,10 +3883,10 @@
         <v>16</v>
       </c>
       <c r="O52" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="P52" t="n">
         <v>16.72916666666666</v>
-      </c>
-      <c r="P52" t="n">
-        <v>17.5</v>
       </c>
       <c r="Q52" t="n">
         <v>1.729166666666667</v>
@@ -3949,10 +3949,10 @@
         <v>16</v>
       </c>
       <c r="O53" t="n">
+        <v>17.31666666666667</v>
+      </c>
+      <c r="P53" t="n">
         <v>16.72152777777778</v>
-      </c>
-      <c r="P53" t="n">
-        <v>17.31666666666667</v>
       </c>
       <c r="Q53" t="n">
         <v>1.721527777777778</v>
@@ -4015,10 +4015,10 @@
         <v>16</v>
       </c>
       <c r="O54" t="n">
+        <v>17.08333333333333</v>
+      </c>
+      <c r="P54" t="n">
         <v>16.71180555555555</v>
-      </c>
-      <c r="P54" t="n">
-        <v>17.08333333333333</v>
       </c>
       <c r="Q54" t="n">
         <v>1.711805555555556</v>
@@ -4081,10 +4081,10 @@
         <v>16</v>
       </c>
       <c r="O55" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="P55" t="n">
         <v>16.49375</v>
-      </c>
-      <c r="P55" t="n">
-        <v>11.85</v>
       </c>
       <c r="Q55" t="n">
         <v>1.49375</v>
@@ -4147,10 +4147,10 @@
         <v>16</v>
       </c>
       <c r="O56" t="n">
+        <v>9</v>
+      </c>
+      <c r="P56" t="n">
         <v>16.375</v>
-      </c>
-      <c r="P56" t="n">
-        <v>9</v>
       </c>
       <c r="Q56" t="n">
         <v>1.375</v>
@@ -4213,10 +4213,10 @@
         <v>15</v>
       </c>
       <c r="O57" t="n">
+        <v>23.68333333333333</v>
+      </c>
+      <c r="P57" t="n">
         <v>15.98680555555556</v>
-      </c>
-      <c r="P57" t="n">
-        <v>23.68333333333333</v>
       </c>
       <c r="Q57" t="n">
         <v>0.9868055555555556</v>
@@ -4279,10 +4279,10 @@
         <v>15</v>
       </c>
       <c r="O58" t="n">
+        <v>19.13333333333333</v>
+      </c>
+      <c r="P58" t="n">
         <v>15.79722222222222</v>
-      </c>
-      <c r="P58" t="n">
-        <v>19.13333333333333</v>
       </c>
       <c r="Q58" t="n">
         <v>0.7972222222222222</v>
@@ -4345,10 +4345,10 @@
         <v>15</v>
       </c>
       <c r="O59" t="n">
+        <v>18.13333333333333</v>
+      </c>
+      <c r="P59" t="n">
         <v>15.75555555555556</v>
-      </c>
-      <c r="P59" t="n">
-        <v>18.13333333333333</v>
       </c>
       <c r="Q59" t="n">
         <v>0.7555555555555555</v>
@@ -4411,10 +4411,10 @@
         <v>15</v>
       </c>
       <c r="O60" t="n">
+        <v>18.11666666666667</v>
+      </c>
+      <c r="P60" t="n">
         <v>15.75486111111111</v>
-      </c>
-      <c r="P60" t="n">
-        <v>18.11666666666667</v>
       </c>
       <c r="Q60" t="n">
         <v>0.7548611111111111</v>
@@ -4477,10 +4477,10 @@
         <v>15</v>
       </c>
       <c r="O61" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="P61" t="n">
         <v>15.4625</v>
-      </c>
-      <c r="P61" t="n">
-        <v>11.1</v>
       </c>
       <c r="Q61" t="n">
         <v>0.4625</v>
@@ -4543,10 +4543,10 @@
         <v>15</v>
       </c>
       <c r="O62" t="n">
+        <v>10.18333333333333</v>
+      </c>
+      <c r="P62" t="n">
         <v>15.42430555555556</v>
-      </c>
-      <c r="P62" t="n">
-        <v>10.18333333333333</v>
       </c>
       <c r="Q62" t="n">
         <v>0.4243055555555555</v>
@@ -4609,10 +4609,10 @@
         <v>15</v>
       </c>
       <c r="O63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P63" t="n">
         <v>15.025</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0.6</v>
       </c>
       <c r="Q63" t="n">
         <v>0.025</v>
@@ -4675,10 +4675,10 @@
         <v>14</v>
       </c>
       <c r="O64" t="n">
+        <v>22.08333333333333</v>
+      </c>
+      <c r="P64" t="n">
         <v>14.92013888888889</v>
-      </c>
-      <c r="P64" t="n">
-        <v>22.08333333333333</v>
       </c>
       <c r="Q64" t="n">
         <v>6.920138888888889</v>
@@ -4741,10 +4741,10 @@
         <v>14</v>
       </c>
       <c r="O65" t="n">
+        <v>20.88333333333333</v>
+      </c>
+      <c r="P65" t="n">
         <v>14.87013888888889</v>
-      </c>
-      <c r="P65" t="n">
-        <v>20.88333333333333</v>
       </c>
       <c r="Q65" t="n">
         <v>6.870138888888889</v>
@@ -4807,10 +4807,10 @@
         <v>14</v>
       </c>
       <c r="O66" t="n">
+        <v>20.51666666666667</v>
+      </c>
+      <c r="P66" t="n">
         <v>14.85486111111111</v>
-      </c>
-      <c r="P66" t="n">
-        <v>20.51666666666667</v>
       </c>
       <c r="Q66" t="n">
         <v>6.854861111111111</v>
@@ -4873,10 +4873,10 @@
         <v>14</v>
       </c>
       <c r="O67" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="P67" t="n">
         <v>14.79375</v>
-      </c>
-      <c r="P67" t="n">
-        <v>19.05</v>
       </c>
       <c r="Q67" t="n">
         <v>6.79375</v>
@@ -4939,10 +4939,10 @@
         <v>14</v>
       </c>
       <c r="O68" t="n">
+        <v>17.71666666666667</v>
+      </c>
+      <c r="P68" t="n">
         <v>14.73819444444445</v>
-      </c>
-      <c r="P68" t="n">
-        <v>17.71666666666667</v>
       </c>
       <c r="Q68" t="n">
         <v>6.738194444444444</v>
@@ -5005,10 +5005,10 @@
         <v>14</v>
       </c>
       <c r="O69" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P69" t="n">
         <v>14.47916666666667</v>
-      </c>
-      <c r="P69" t="n">
-        <v>11.5</v>
       </c>
       <c r="Q69" t="n">
         <v>6.479166666666666</v>
@@ -5071,10 +5071,10 @@
         <v>14</v>
       </c>
       <c r="O70" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="P70" t="n">
         <v>14.46458333333333</v>
-      </c>
-      <c r="P70" t="n">
-        <v>11.15</v>
       </c>
       <c r="Q70" t="n">
         <v>6.464583333333333</v>
@@ -5137,10 +5137,10 @@
         <v>13</v>
       </c>
       <c r="O71" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="P71" t="n">
         <v>13.97291666666667</v>
-      </c>
-      <c r="P71" t="n">
-        <v>23.35</v>
       </c>
       <c r="Q71" t="n">
         <v>5.972916666666666</v>
@@ -5203,10 +5203,10 @@
         <v>13</v>
       </c>
       <c r="O72" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="P72" t="n">
         <v>13.89791666666667</v>
-      </c>
-      <c r="P72" t="n">
-        <v>21.55</v>
       </c>
       <c r="Q72" t="n">
         <v>5.897916666666666</v>
@@ -5269,10 +5269,10 @@
         <v>13</v>
       </c>
       <c r="O73" t="n">
+        <v>17.21666666666667</v>
+      </c>
+      <c r="P73" t="n">
         <v>13.71736111111111</v>
-      </c>
-      <c r="P73" t="n">
-        <v>17.21666666666667</v>
       </c>
       <c r="Q73" t="n">
         <v>5.717361111111111</v>
@@ -5335,10 +5335,10 @@
         <v>13</v>
       </c>
       <c r="O74" t="n">
+        <v>17.16666666666667</v>
+      </c>
+      <c r="P74" t="n">
         <v>13.71527777777778</v>
-      </c>
-      <c r="P74" t="n">
-        <v>17.16666666666667</v>
       </c>
       <c r="Q74" t="n">
         <v>5.715277777777778</v>
@@ -5401,10 +5401,10 @@
         <v>13</v>
       </c>
       <c r="O75" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="P75" t="n">
         <v>13.49375</v>
-      </c>
-      <c r="P75" t="n">
-        <v>11.85</v>
       </c>
       <c r="Q75" t="n">
         <v>5.493749999999999</v>
@@ -5467,10 +5467,10 @@
         <v>13</v>
       </c>
       <c r="O76" t="n">
+        <v>9.233333333333333</v>
+      </c>
+      <c r="P76" t="n">
         <v>13.38472222222222</v>
-      </c>
-      <c r="P76" t="n">
-        <v>9.233333333333333</v>
       </c>
       <c r="Q76" t="n">
         <v>5.384722222222222</v>
@@ -5533,10 +5533,10 @@
         <v>12</v>
       </c>
       <c r="O77" t="n">
+        <v>15.41666666666667</v>
+      </c>
+      <c r="P77" t="n">
         <v>12.64236111111111</v>
-      </c>
-      <c r="P77" t="n">
-        <v>15.41666666666667</v>
       </c>
       <c r="Q77" t="n">
         <v>4.642361111111111</v>
@@ -5599,10 +5599,10 @@
         <v>12</v>
       </c>
       <c r="O78" t="n">
+        <v>11.88333333333333</v>
+      </c>
+      <c r="P78" t="n">
         <v>12.49513888888889</v>
-      </c>
-      <c r="P78" t="n">
-        <v>11.88333333333333</v>
       </c>
       <c r="Q78" t="n">
         <v>4.495138888888889</v>
@@ -5665,10 +5665,10 @@
         <v>11</v>
       </c>
       <c r="O79" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="P79" t="n">
         <v>11.72291666666667</v>
-      </c>
-      <c r="P79" t="n">
-        <v>17.35</v>
       </c>
       <c r="Q79" t="n">
         <v>3.722916666666667</v>
@@ -5731,10 +5731,10 @@
         <v>11</v>
       </c>
       <c r="O80" t="n">
+        <v>11.51666666666667</v>
+      </c>
+      <c r="P80" t="n">
         <v>11.47986111111111</v>
-      </c>
-      <c r="P80" t="n">
-        <v>11.51666666666667</v>
       </c>
       <c r="Q80" t="n">
         <v>3.479861111111111</v>
@@ -5797,10 +5797,10 @@
         <v>11</v>
       </c>
       <c r="O81" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="P81" t="n">
         <v>11.46875</v>
-      </c>
-      <c r="P81" t="n">
-        <v>11.25</v>
       </c>
       <c r="Q81" t="n">
         <v>3.46875</v>
@@ -5863,10 +5863,10 @@
         <v>11</v>
       </c>
       <c r="O82" t="n">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="P82" t="n">
         <v>11.34722222222222</v>
-      </c>
-      <c r="P82" t="n">
-        <v>8.333333333333334</v>
       </c>
       <c r="Q82" t="n">
         <v>3.347222222222222</v>
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="O83" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="P83" t="n">
         <v>11.33958333333333</v>
-      </c>
-      <c r="P83" t="n">
-        <v>8.15</v>
       </c>
       <c r="Q83" t="n">
         <v>3.339583333333334</v>
@@ -5995,10 +5995,10 @@
         <v>10</v>
       </c>
       <c r="O84" t="n">
+        <v>17.26666666666667</v>
+      </c>
+      <c r="P84" t="n">
         <v>10.71944444444444</v>
-      </c>
-      <c r="P84" t="n">
-        <v>17.26666666666667</v>
       </c>
       <c r="Q84" t="n">
         <v>2.719444444444445</v>
@@ -6061,10 +6061,10 @@
         <v>10</v>
       </c>
       <c r="O85" t="n">
+        <v>17.26666666666667</v>
+      </c>
+      <c r="P85" t="n">
         <v>10.71944444444444</v>
-      </c>
-      <c r="P85" t="n">
-        <v>17.26666666666667</v>
       </c>
       <c r="Q85" t="n">
         <v>2.719444444444445</v>
@@ -6127,10 +6127,10 @@
         <v>10</v>
       </c>
       <c r="O86" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="P86" t="n">
         <v>10.33541666666667</v>
-      </c>
-      <c r="P86" t="n">
-        <v>8.050000000000001</v>
       </c>
       <c r="Q86" t="n">
         <v>2.335416666666667</v>
@@ -6193,10 +6193,10 @@
         <v>9</v>
       </c>
       <c r="O87" t="n">
+        <v>22.48333333333333</v>
+      </c>
+      <c r="P87" t="n">
         <v>9.936805555555555</v>
-      </c>
-      <c r="P87" t="n">
-        <v>22.48333333333333</v>
       </c>
       <c r="Q87" t="n">
         <v>1.936805555555555</v>
@@ -6259,10 +6259,10 @@
         <v>9</v>
       </c>
       <c r="O88" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="P88" t="n">
         <v>9.84375</v>
-      </c>
-      <c r="P88" t="n">
-        <v>20.25</v>
       </c>
       <c r="Q88" t="n">
         <v>1.84375</v>
@@ -6325,10 +6325,10 @@
         <v>9</v>
       </c>
       <c r="O89" t="n">
+        <v>19.73333333333333</v>
+      </c>
+      <c r="P89" t="n">
         <v>9.822222222222221</v>
-      </c>
-      <c r="P89" t="n">
-        <v>19.73333333333333</v>
       </c>
       <c r="Q89" t="n">
         <v>1.822222222222222</v>
@@ -6391,10 +6391,10 @@
         <v>9</v>
       </c>
       <c r="O90" t="n">
+        <v>19.28333333333333</v>
+      </c>
+      <c r="P90" t="n">
         <v>9.803472222222222</v>
-      </c>
-      <c r="P90" t="n">
-        <v>19.28333333333333</v>
       </c>
       <c r="Q90" t="n">
         <v>1.803472222222222</v>
@@ -6457,10 +6457,10 @@
         <v>9</v>
       </c>
       <c r="O91" t="n">
+        <v>16.03333333333333</v>
+      </c>
+      <c r="P91" t="n">
         <v>9.668055555555554</v>
-      </c>
-      <c r="P91" t="n">
-        <v>16.03333333333333</v>
       </c>
       <c r="Q91" t="n">
         <v>1.668055555555555</v>
@@ -6523,10 +6523,10 @@
         <v>9</v>
       </c>
       <c r="O92" t="n">
+        <v>13.86666666666667</v>
+      </c>
+      <c r="P92" t="n">
         <v>9.577777777777778</v>
-      </c>
-      <c r="P92" t="n">
-        <v>13.86666666666667</v>
       </c>
       <c r="Q92" t="n">
         <v>1.577777777777778</v>
@@ -6589,10 +6589,10 @@
         <v>9</v>
       </c>
       <c r="O93" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="P93" t="n">
         <v>9.485416666666667</v>
-      </c>
-      <c r="P93" t="n">
-        <v>11.65</v>
       </c>
       <c r="Q93" t="n">
         <v>1.485416666666667</v>
@@ -6655,10 +6655,10 @@
         <v>9</v>
       </c>
       <c r="O94" t="n">
+        <v>11.61666666666667</v>
+      </c>
+      <c r="P94" t="n">
         <v>9.484027777777778</v>
-      </c>
-      <c r="P94" t="n">
-        <v>11.61666666666667</v>
       </c>
       <c r="Q94" t="n">
         <v>1.484027777777778</v>
@@ -6721,10 +6721,10 @@
         <v>9</v>
       </c>
       <c r="O95" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="P95" t="n">
         <v>9.466666666666667</v>
-      </c>
-      <c r="P95" t="n">
-        <v>11.2</v>
       </c>
       <c r="Q95" t="n">
         <v>1.466666666666667</v>
@@ -6787,10 +6787,10 @@
         <v>9</v>
       </c>
       <c r="O96" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="P96" t="n">
         <v>9.327083333333333</v>
-      </c>
-      <c r="P96" t="n">
-        <v>7.85</v>
       </c>
       <c r="Q96" t="n">
         <v>1.327083333333333</v>
@@ -6853,10 +6853,10 @@
         <v>8</v>
       </c>
       <c r="O97" t="n">
+        <v>19.78333333333333</v>
+      </c>
+      <c r="P97" t="n">
         <v>8.824305555555554</v>
-      </c>
-      <c r="P97" t="n">
-        <v>19.78333333333333</v>
       </c>
       <c r="Q97" t="n">
         <v>0.8243055555555555</v>
@@ -6919,10 +6919,10 @@
         <v>8</v>
       </c>
       <c r="O98" t="n">
+        <v>17.78333333333333</v>
+      </c>
+      <c r="P98" t="n">
         <v>8.740972222222222</v>
-      </c>
-      <c r="P98" t="n">
-        <v>17.78333333333333</v>
       </c>
       <c r="Q98" t="n">
         <v>0.7409722222222223</v>
@@ -6985,10 +6985,10 @@
         <v>8</v>
       </c>
       <c r="O99" t="n">
+        <v>11.78333333333333</v>
+      </c>
+      <c r="P99" t="n">
         <v>8.490972222222222</v>
-      </c>
-      <c r="P99" t="n">
-        <v>11.78333333333333</v>
       </c>
       <c r="Q99" t="n">
         <v>0.4909722222222222</v>
@@ -7051,10 +7051,10 @@
         <v>7</v>
       </c>
       <c r="O100" t="n">
+        <v>23.98333333333333</v>
+      </c>
+      <c r="P100" t="n">
         <v>7.999305555555555</v>
-      </c>
-      <c r="P100" t="n">
-        <v>23.98333333333333</v>
       </c>
       <c r="Q100" t="n">
         <v>6.999305555555555</v>
@@ -7117,10 +7117,10 @@
         <v>7</v>
       </c>
       <c r="O101" t="n">
+        <v>22.16666666666667</v>
+      </c>
+      <c r="P101" t="n">
         <v>7.923611111111112</v>
-      </c>
-      <c r="P101" t="n">
-        <v>22.16666666666667</v>
       </c>
       <c r="Q101" t="n">
         <v>6.923611111111112</v>
@@ -7183,10 +7183,10 @@
         <v>7</v>
       </c>
       <c r="O102" t="n">
+        <v>21.46666666666667</v>
+      </c>
+      <c r="P102" t="n">
         <v>7.894444444444445</v>
-      </c>
-      <c r="P102" t="n">
-        <v>21.46666666666667</v>
       </c>
       <c r="Q102" t="n">
         <v>6.894444444444445</v>
@@ -7249,10 +7249,10 @@
         <v>7</v>
       </c>
       <c r="O103" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="P103" t="n">
         <v>7.877083333333333</v>
-      </c>
-      <c r="P103" t="n">
-        <v>21.05</v>
       </c>
       <c r="Q103" t="n">
         <v>6.877083333333333</v>
@@ -7315,10 +7315,10 @@
         <v>7</v>
       </c>
       <c r="O104" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="P104" t="n">
         <v>7.861111111111111</v>
-      </c>
-      <c r="P104" t="n">
-        <v>20.66666666666667</v>
       </c>
       <c r="Q104" t="n">
         <v>6.861111111111111</v>
@@ -7381,10 +7381,10 @@
         <v>7</v>
       </c>
       <c r="O105" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="P105" t="n">
         <v>7.763888888888889</v>
-      </c>
-      <c r="P105" t="n">
-        <v>18.33333333333333</v>
       </c>
       <c r="Q105" t="n">
         <v>6.763888888888889</v>
@@ -7447,10 +7447,10 @@
         <v>7</v>
       </c>
       <c r="O106" t="n">
+        <v>18.31666666666667</v>
+      </c>
+      <c r="P106" t="n">
         <v>7.763194444444444</v>
-      </c>
-      <c r="P106" t="n">
-        <v>18.31666666666667</v>
       </c>
       <c r="Q106" t="n">
         <v>6.763194444444444</v>
@@ -7513,10 +7513,10 @@
         <v>7</v>
       </c>
       <c r="O107" t="n">
+        <v>17.31666666666667</v>
+      </c>
+      <c r="P107" t="n">
         <v>7.721527777777777</v>
-      </c>
-      <c r="P107" t="n">
-        <v>17.31666666666667</v>
       </c>
       <c r="Q107" t="n">
         <v>6.721527777777777</v>
@@ -7579,10 +7579,10 @@
         <v>7</v>
       </c>
       <c r="O108" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="P108" t="n">
         <v>7.554166666666667</v>
-      </c>
-      <c r="P108" t="n">
-        <v>13.3</v>
       </c>
       <c r="Q108" t="n">
         <v>6.554166666666667</v>
@@ -7645,10 +7645,10 @@
         <v>7</v>
       </c>
       <c r="O109" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="P109" t="n">
         <v>7.539583333333334</v>
-      </c>
-      <c r="P109" t="n">
-        <v>12.95</v>
       </c>
       <c r="Q109" t="n">
         <v>6.539583333333334</v>
@@ -7711,10 +7711,10 @@
         <v>7</v>
       </c>
       <c r="O110" t="n">
+        <v>12.28333333333333</v>
+      </c>
+      <c r="P110" t="n">
         <v>7.511805555555555</v>
-      </c>
-      <c r="P110" t="n">
-        <v>12.28333333333333</v>
       </c>
       <c r="Q110" t="n">
         <v>6.511805555555555</v>
@@ -7777,10 +7777,10 @@
         <v>7</v>
       </c>
       <c r="O111" t="n">
+        <v>12.26666666666667</v>
+      </c>
+      <c r="P111" t="n">
         <v>7.511111111111111</v>
-      </c>
-      <c r="P111" t="n">
-        <v>12.26666666666667</v>
       </c>
       <c r="Q111" t="n">
         <v>6.511111111111111</v>
@@ -7843,10 +7843,10 @@
         <v>7</v>
       </c>
       <c r="O112" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="P112" t="n">
         <v>7.510416666666667</v>
-      </c>
-      <c r="P112" t="n">
-        <v>12.25</v>
       </c>
       <c r="Q112" t="n">
         <v>6.510416666666667</v>
@@ -7909,10 +7909,10 @@
         <v>7</v>
       </c>
       <c r="O113" t="n">
+        <v>12</v>
+      </c>
+      <c r="P113" t="n">
         <v>7.5</v>
-      </c>
-      <c r="P113" t="n">
-        <v>12</v>
       </c>
       <c r="Q113" t="n">
         <v>6.5</v>
@@ -7975,10 +7975,10 @@
         <v>6</v>
       </c>
       <c r="O114" t="n">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="P114" t="n">
         <v>6.993055555555555</v>
-      </c>
-      <c r="P114" t="n">
-        <v>23.83333333333333</v>
       </c>
       <c r="Q114" t="n">
         <v>5.993055555555555</v>
@@ -8041,10 +8041,10 @@
         <v>6</v>
       </c>
       <c r="O115" t="n">
+        <v>18.81666666666667</v>
+      </c>
+      <c r="P115" t="n">
         <v>6.784027777777778</v>
-      </c>
-      <c r="P115" t="n">
-        <v>18.81666666666667</v>
       </c>
       <c r="Q115" t="n">
         <v>5.784027777777778</v>
@@ -8107,10 +8107,10 @@
         <v>6</v>
       </c>
       <c r="O116" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="P116" t="n">
         <v>6.783333333333333</v>
-      </c>
-      <c r="P116" t="n">
-        <v>18.8</v>
       </c>
       <c r="Q116" t="n">
         <v>5.783333333333333</v>
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="O117" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="P117" t="n">
         <v>6.652083333333334</v>
-      </c>
-      <c r="P117" t="n">
-        <v>15.65</v>
       </c>
       <c r="Q117" t="n">
         <v>5.652083333333334</v>
@@ -8239,10 +8239,10 @@
         <v>6</v>
       </c>
       <c r="O118" t="n">
+        <v>7.983333333333333</v>
+      </c>
+      <c r="P118" t="n">
         <v>6.332638888888889</v>
-      </c>
-      <c r="P118" t="n">
-        <v>7.983333333333333</v>
       </c>
       <c r="Q118" t="n">
         <v>5.332638888888889</v>
@@ -8305,10 +8305,10 @@
         <v>6</v>
       </c>
       <c r="O119" t="n">
+        <v>2.783333333333333</v>
+      </c>
+      <c r="P119" t="n">
         <v>6.115972222222222</v>
-      </c>
-      <c r="P119" t="n">
-        <v>2.783333333333333</v>
       </c>
       <c r="Q119" t="n">
         <v>5.115972222222222</v>
@@ -8371,10 +8371,10 @@
         <v>5</v>
       </c>
       <c r="O120" t="n">
+        <v>23.98333333333333</v>
+      </c>
+      <c r="P120" t="n">
         <v>5.999305555555555</v>
-      </c>
-      <c r="P120" t="n">
-        <v>23.98333333333333</v>
       </c>
       <c r="Q120" t="n">
         <v>4.999305555555555</v>
@@ -8437,10 +8437,10 @@
         <v>5</v>
       </c>
       <c r="O121" t="n">
+        <v>20.73333333333333</v>
+      </c>
+      <c r="P121" t="n">
         <v>5.863888888888889</v>
-      </c>
-      <c r="P121" t="n">
-        <v>20.73333333333333</v>
       </c>
       <c r="Q121" t="n">
         <v>4.863888888888889</v>
@@ -8503,10 +8503,10 @@
         <v>5</v>
       </c>
       <c r="O122" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="P122" t="n">
         <v>5.722222222222222</v>
-      </c>
-      <c r="P122" t="n">
-        <v>17.33333333333333</v>
       </c>
       <c r="Q122" t="n">
         <v>4.722222222222222</v>
@@ -8569,10 +8569,10 @@
         <v>5</v>
       </c>
       <c r="O123" t="n">
+        <v>11.56666666666667</v>
+      </c>
+      <c r="P123" t="n">
         <v>5.481944444444444</v>
-      </c>
-      <c r="P123" t="n">
-        <v>11.56666666666667</v>
       </c>
       <c r="Q123" t="n">
         <v>4.481944444444444</v>
@@ -8635,10 +8635,10 @@
         <v>5</v>
       </c>
       <c r="O124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P124" t="n">
         <v>5.3125</v>
-      </c>
-      <c r="P124" t="n">
-        <v>7.5</v>
       </c>
       <c r="Q124" t="n">
         <v>4.3125</v>
@@ -8701,10 +8701,10 @@
         <v>4</v>
       </c>
       <c r="O125" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="P125" t="n">
         <v>4.930555555555556</v>
-      </c>
-      <c r="P125" t="n">
-        <v>22.33333333333333</v>
       </c>
       <c r="Q125" t="n">
         <v>3.930555555555555</v>
@@ -8767,10 +8767,10 @@
         <v>4</v>
       </c>
       <c r="O126" t="n">
+        <v>17.63333333333333</v>
+      </c>
+      <c r="P126" t="n">
         <v>4.734722222222222</v>
-      </c>
-      <c r="P126" t="n">
-        <v>17.63333333333333</v>
       </c>
       <c r="Q126" t="n">
         <v>3.734722222222222</v>
@@ -8833,10 +8833,10 @@
         <v>4</v>
       </c>
       <c r="O127" t="n">
+        <v>17.58333333333333</v>
+      </c>
+      <c r="P127" t="n">
         <v>4.732638888888888</v>
-      </c>
-      <c r="P127" t="n">
-        <v>17.58333333333333</v>
       </c>
       <c r="Q127" t="n">
         <v>3.732638888888889</v>
@@ -8899,10 +8899,10 @@
         <v>4</v>
       </c>
       <c r="O128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P128" t="n">
         <v>4.520833333333333</v>
-      </c>
-      <c r="P128" t="n">
-        <v>12.5</v>
       </c>
       <c r="Q128" t="n">
         <v>3.520833333333333</v>
@@ -8965,10 +8965,10 @@
         <v>4</v>
       </c>
       <c r="O129" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P129" t="n">
         <v>4.479166666666666</v>
-      </c>
-      <c r="P129" t="n">
-        <v>11.5</v>
       </c>
       <c r="Q129" t="n">
         <v>3.479166666666667</v>
@@ -9031,10 +9031,10 @@
         <v>4</v>
       </c>
       <c r="O130" t="n">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="P130" t="n">
         <v>4.315972222222222</v>
-      </c>
-      <c r="P130" t="n">
-        <v>7.583333333333333</v>
       </c>
       <c r="Q130" t="n">
         <v>3.315972222222222</v>
@@ -9097,10 +9097,10 @@
         <v>3</v>
       </c>
       <c r="O131" t="n">
+        <v>20.58333333333333</v>
+      </c>
+      <c r="P131" t="n">
         <v>3.857638888888889</v>
-      </c>
-      <c r="P131" t="n">
-        <v>20.58333333333333</v>
       </c>
       <c r="Q131" t="n">
         <v>2.857638888888889</v>
@@ -9163,10 +9163,10 @@
         <v>3</v>
       </c>
       <c r="O132" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="P132" t="n">
         <v>3.85625</v>
-      </c>
-      <c r="P132" t="n">
-        <v>20.55</v>
       </c>
       <c r="Q132" t="n">
         <v>2.85625</v>
@@ -9229,10 +9229,10 @@
         <v>3</v>
       </c>
       <c r="O133" t="n">
+        <v>18.53333333333333</v>
+      </c>
+      <c r="P133" t="n">
         <v>3.772222222222222</v>
-      </c>
-      <c r="P133" t="n">
-        <v>18.53333333333333</v>
       </c>
       <c r="Q133" t="n">
         <v>2.772222222222222</v>
@@ -9295,10 +9295,10 @@
         <v>3</v>
       </c>
       <c r="O134" t="n">
+        <v>17</v>
+      </c>
+      <c r="P134" t="n">
         <v>3.708333333333333</v>
-      </c>
-      <c r="P134" t="n">
-        <v>17</v>
       </c>
       <c r="Q134" t="n">
         <v>2.708333333333333</v>
@@ -9361,10 +9361,10 @@
         <v>3</v>
       </c>
       <c r="O135" t="n">
+        <v>16.91666666666667</v>
+      </c>
+      <c r="P135" t="n">
         <v>3.704861111111111</v>
-      </c>
-      <c r="P135" t="n">
-        <v>16.91666666666667</v>
       </c>
       <c r="Q135" t="n">
         <v>2.704861111111111</v>
@@ -9427,10 +9427,10 @@
         <v>3</v>
       </c>
       <c r="O136" t="n">
+        <v>7.633333333333333</v>
+      </c>
+      <c r="P136" t="n">
         <v>3.318055555555556</v>
-      </c>
-      <c r="P136" t="n">
-        <v>7.633333333333333</v>
       </c>
       <c r="Q136" t="n">
         <v>2.318055555555556</v>
@@ -9493,10 +9493,10 @@
         <v>3</v>
       </c>
       <c r="O137" t="n">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="P137" t="n">
         <v>3.023611111111111</v>
-      </c>
-      <c r="P137" t="n">
-        <v>0.5666666666666667</v>
       </c>
       <c r="Q137" t="n">
         <v>2.023611111111111</v>
@@ -9559,10 +9559,10 @@
         <v>2</v>
       </c>
       <c r="O138" t="n">
+        <v>17.96666666666667</v>
+      </c>
+      <c r="P138" t="n">
         <v>2.748611111111111</v>
-      </c>
-      <c r="P138" t="n">
-        <v>17.96666666666667</v>
       </c>
       <c r="Q138" t="n">
         <v>1.748611111111111</v>
@@ -9625,10 +9625,10 @@
         <v>2</v>
       </c>
       <c r="O139" t="n">
+        <v>17.91666666666667</v>
+      </c>
+      <c r="P139" t="n">
         <v>2.746527777777778</v>
-      </c>
-      <c r="P139" t="n">
-        <v>17.91666666666667</v>
       </c>
       <c r="Q139" t="n">
         <v>1.746527777777778</v>
@@ -9691,10 +9691,10 @@
         <v>2</v>
       </c>
       <c r="O140" t="n">
+        <v>17.91666666666667</v>
+      </c>
+      <c r="P140" t="n">
         <v>2.746527777777778</v>
-      </c>
-      <c r="P140" t="n">
-        <v>17.91666666666667</v>
       </c>
       <c r="Q140" t="n">
         <v>1.746527777777778</v>
@@ -9757,10 +9757,10 @@
         <v>2</v>
       </c>
       <c r="O141" t="n">
+        <v>11.31666666666667</v>
+      </c>
+      <c r="P141" t="n">
         <v>2.471527777777778</v>
-      </c>
-      <c r="P141" t="n">
-        <v>11.31666666666667</v>
       </c>
       <c r="Q141" t="n">
         <v>1.471527777777778</v>
@@ -9823,10 +9823,10 @@
         <v>2</v>
       </c>
       <c r="O142" t="n">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="P142" t="n">
         <v>2.319444444444444</v>
-      </c>
-      <c r="P142" t="n">
-        <v>7.666666666666667</v>
       </c>
       <c r="Q142" t="n">
         <v>1.319444444444444</v>
@@ -9889,10 +9889,10 @@
         <v>2</v>
       </c>
       <c r="O143" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P143" t="n">
         <v>2.089583333333334</v>
-      </c>
-      <c r="P143" t="n">
-        <v>2.15</v>
       </c>
       <c r="Q143" t="n">
         <v>1.089583333333333</v>
@@ -9955,10 +9955,10 @@
         <v>1</v>
       </c>
       <c r="O144" t="n">
+        <v>18</v>
+      </c>
+      <c r="P144" t="n">
         <v>1.75</v>
-      </c>
-      <c r="P144" t="n">
-        <v>18</v>
       </c>
       <c r="Q144" t="n">
         <v>0.75</v>
@@ -10021,10 +10021,10 @@
         <v>1</v>
       </c>
       <c r="O145" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="P145" t="n">
         <v>1.722222222222222</v>
-      </c>
-      <c r="P145" t="n">
-        <v>17.33333333333333</v>
       </c>
       <c r="Q145" t="n">
         <v>0.7222222222222222</v>
@@ -10087,10 +10087,10 @@
         <v>1</v>
       </c>
       <c r="O146" t="n">
+        <v>10.68333333333333</v>
+      </c>
+      <c r="P146" t="n">
         <v>1.445138888888889</v>
-      </c>
-      <c r="P146" t="n">
-        <v>10.68333333333333</v>
       </c>
       <c r="Q146" t="n">
         <v>0.4451388888888889</v>
@@ -10153,10 +10153,10 @@
         <v>1</v>
       </c>
       <c r="O147" t="n">
+        <v>7.983333333333333</v>
+      </c>
+      <c r="P147" t="n">
         <v>1.332638888888889</v>
-      </c>
-      <c r="P147" t="n">
-        <v>7.983333333333333</v>
       </c>
       <c r="Q147" t="n">
         <v>0.3326388888888889</v>
@@ -10219,10 +10219,10 @@
         <v>0</v>
       </c>
       <c r="O148" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="P148" t="n">
         <v>30.88541666666667</v>
-      </c>
-      <c r="P148" t="n">
-        <v>21.25</v>
       </c>
       <c r="Q148" t="n">
         <v>6.885416666666667</v>
@@ -10285,10 +10285,10 @@
         <v>0</v>
       </c>
       <c r="O149" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="P149" t="n">
         <v>30.86875</v>
-      </c>
-      <c r="P149" t="n">
-        <v>20.85</v>
       </c>
       <c r="Q149" t="n">
         <v>6.868749999999999</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="O150" t="n">
+        <v>20.71666666666667</v>
+      </c>
+      <c r="P150" t="n">
         <v>30.86319444444444</v>
-      </c>
-      <c r="P150" t="n">
-        <v>20.71666666666667</v>
       </c>
       <c r="Q150" t="n">
         <v>6.863194444444444</v>
@@ -10417,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="O151" t="n">
+        <v>20.68333333333333</v>
+      </c>
+      <c r="P151" t="n">
         <v>30.86180555555556</v>
-      </c>
-      <c r="P151" t="n">
-        <v>20.68333333333333</v>
       </c>
       <c r="Q151" t="n">
         <v>6.861805555555555</v>
@@ -10483,10 +10483,10 @@
         <v>0</v>
       </c>
       <c r="O152" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="P152" t="n">
         <v>30.85208333333333</v>
-      </c>
-      <c r="P152" t="n">
-        <v>20.45</v>
       </c>
       <c r="Q152" t="n">
         <v>6.852083333333333</v>
@@ -10549,10 +10549,10 @@
         <v>0</v>
       </c>
       <c r="O153" t="n">
+        <v>18.58333333333333</v>
+      </c>
+      <c r="P153" t="n">
         <v>30.77430555555556</v>
-      </c>
-      <c r="P153" t="n">
-        <v>18.58333333333333</v>
       </c>
       <c r="Q153" t="n">
         <v>6.774305555555555</v>
@@ -10615,10 +10615,10 @@
         <v>0</v>
       </c>
       <c r="O154" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="P154" t="n">
         <v>30.75208333333333</v>
-      </c>
-      <c r="P154" t="n">
-        <v>18.05</v>
       </c>
       <c r="Q154" t="n">
         <v>6.752083333333333</v>
@@ -10681,10 +10681,10 @@
         <v>0</v>
       </c>
       <c r="O155" t="n">
+        <v>16.88333333333333</v>
+      </c>
+      <c r="P155" t="n">
         <v>30.70347222222222</v>
-      </c>
-      <c r="P155" t="n">
-        <v>16.88333333333333</v>
       </c>
       <c r="Q155" t="n">
         <v>6.703472222222222</v>
@@ -10747,10 +10747,10 @@
         <v>0</v>
       </c>
       <c r="O156" t="n">
+        <v>16</v>
+      </c>
+      <c r="P156" t="n">
         <v>30.66666666666667</v>
-      </c>
-      <c r="P156" t="n">
-        <v>16</v>
       </c>
       <c r="Q156" t="n">
         <v>6.666666666666667</v>
@@ -10813,10 +10813,10 @@
         <v>0</v>
       </c>
       <c r="O157" t="n">
+        <v>15.48333333333333</v>
+      </c>
+      <c r="P157" t="n">
         <v>30.64513888888889</v>
-      </c>
-      <c r="P157" t="n">
-        <v>15.48333333333333</v>
       </c>
       <c r="Q157" t="n">
         <v>6.645138888888889</v>
@@ -10879,10 +10879,10 @@
         <v>0</v>
       </c>
       <c r="O158" t="n">
+        <v>11.31666666666667</v>
+      </c>
+      <c r="P158" t="n">
         <v>30.47152777777778</v>
-      </c>
-      <c r="P158" t="n">
-        <v>11.31666666666667</v>
       </c>
       <c r="Q158" t="n">
         <v>6.471527777777777</v>
